--- a/static/dulieu/Products1.xlsx
+++ b/static/dulieu/Products1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="550">
   <si>
     <t>name</t>
   </si>
@@ -162,6 +162,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Kem Dưỡng Dạng Nước Hoa Cúc KIEHL'S Calendula Serum-Infused Water Cream 50ml từ </t>
     </r>
     <r>
@@ -225,6 +232,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Obagi Soothing Retinol là sản phẩm </t>
     </r>
     <r>
@@ -327,6 +341,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Serum phục hồi Ekseption Hyaluronic B5 Mixlab 75ml</t>
     </r>
     <r>
@@ -1100,6 +1121,708 @@
   <si>
     <t>https://res.cloudinary.com/deoknys7k/image/upload/v1757387047/zcycm1akio72qo5dvye4_gh1t5p.webp</t>
   </si>
+  <si>
+    <t>Dermalogica - Overnight Repair Serum - Tinh chất dưỡng da ban đêm chống lão hóa làm da căng mịn</t>
+  </si>
+  <si>
+    <t>Một huyết thanh peptide siêu dưỡng nạp với dầu Argan và Hoa hồng để giúp tăng độ sáng và cung cấp các lợi ích chống lại lão hoá đáng kể. Thoa đều lên da hoặc trộn với kem điều trị ban đêm của bạn để giúp giảm sự xuất hiện của nếp nhăn, tái tạo khả năng phục hồi và hồi sinh làn da kém sắc.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355277/z7031253053493_a8f1793edf67b1941dc2cf49a45abfee_pfxm15.jpg</t>
+  </si>
+  <si>
+    <t>newxn</t>
+  </si>
+  <si>
+    <t>(MẪU MỚI) Kem Dưỡng Nhân Sâm, Chống Lão Hóa Sulwhasoo Concentrated Ginseng Rejuvenating Cream Rich 10ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sulwhasoo không ngừng nâng cao chất lượng và đổi mới công nghệ để khai thác hết tiềm năng của nhân sâm. Thông qua hàng thập kỷ nghiên cứu và ứng dụng công nghệ chuyển hóa sinh học độc quyền, Sulwhasoo đã tạo ra chiết xuất nhân sâm có chứa saponin hiếm (1g chiết xuất từ 1000g nhân sâm) được tăng cường độ tập trung lên 6000* lần để mang lại hiệu quả chống lão hóa mạnh mẽ và làm trẻ hóa làn da. *So với lượng saponin compound K trong rễ nhân sâm tự nhiên.- Nhân sâm cũng là thành phần chính trong nhiều sản phẩm nổi tiếng của Sulwhasoo, bao gồm kem dưỡng da Sulwhasoo Concentrated Ginseng Rejuvenating Cream Rich, được ra mắt lần đầu tiên vào năm 1966 với tên gọi ABC Ginseng Cream. Sản phẩm này đã tạo nên một cơn sốt trong giới làm đẹp vì kết cấu mềm mượt, dễ thẩm thấu vào da và công thức hiệu quả. Các nghiên cứu của thương hiệu cho thấy, khi sử dụng sản phẩm này thường xuyên, da trở nên mịn màng, săn chắc và tươi trẻ hơn.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253053782_1ebdd51838087778adeee762b23950b1_mjgyjp.jpg</t>
+  </si>
+  <si>
+    <t>Thực Phẩm Bảo Vệ Sức Khỏe Heliocare Capsulas Oral 30v</t>
+  </si>
+  <si>
+    <t>Viên Uống Chống Nắng HELIOCARE là sản phẩm chống nắng đường uống từ thương hiệu mỹ phẩm HELIOCARE nổi tiếng tại Tây Ban Nha. Với thành phần chính chiết xuất từ dương xỉ, viên uống làm đẹp da này sẽ giúp cung cấp khả năng bảo vệ đồng nhất và toàn diện trước tác động của ánh nắng mặt trời, giảm thiểu các tổn thương do tia UV gây ra, giúp ngăn ngừa da lão hóa và mang đến làn da đẹp, khỏe mạnh cho người sử dụng. </t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253102480_7a43404eb5233b12d384c78220497f3c_tvmbbq.jpg</t>
+  </si>
+  <si>
+    <t>Kem dưỡng làm giảm nếp nhăn cho da Revision Skincare D-E-J Night Face Cream 4g</t>
+  </si>
+  <si>
+    <t>Kem dưỡng ẩm chống Lão Hoá Chuyên Sâu – D-E-J Night Face Cream là sản phẩm nổi bật từ thương hiệu Revision Skincare, được thiết kế để cung cấp độ ẩm và cải thiện tình trạng lão hóa da. Sản phẩm kết hợp độc đáo giữa 0.25% Retinol giải phóng chậm và Bakuchiol, mang lại hiệu quả trẻ hóa rõ rệt chỉ sau một đêm.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253042576_20d2f6f37d883fc1d03b3d96d001cb3d_e3a1e5.jpg</t>
+  </si>
+  <si>
+    <t>KB Pure An-Bscess Treatment giúp làm giảm cảm giác kích ứng tức thì 30ml</t>
+  </si>
+  <si>
+    <t>KB PURE AN-BSCESS TREATMENT là một loại kem dưỡng chuyên biệt, mang tính đột phá, được thiết kế để hỗ trợ cải thiện các tổn thương da do viêm nhiễm như viêm nang lông, áp xe và các dạng mụn trứng cá nặng. Thuộc dòng kem điều trị bôi tiêu điểm, sản phẩm này chứa chiết xuất Camu Camu giúp cân bằng phản ứng miễn dịch trên da, cùng với lưu huỳnh hỗ trợ làm giảm viêm và làm dịu đáng kể các thương tổn. KB Pure An-Bscess Treatment giúp làm giảm cảm giác kích ứng tức thì và hỗ trợ đẩy nhanh quá trình phục hồi cho vùng da bị viêm, kể cả những người bị Viêm tuyến mồ hôi mủ (Hidradenitis Suppurativa).</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253080697_29db6174421f24f58cb32cea2cc27696_bspw8i.jpg</t>
+  </si>
+  <si>
+    <t>Kem Cấp Ẩm Dạng Gel Belif The True Cream Aqua Bomb 50ml</t>
+  </si>
+  <si>
+    <t>Kem cấp ẩm tức thì dạng gel BELIF The True Cream Aqua Bomb được ví như quả bom nước cung cấp nước liên tục, giúp da không bị thoát nước, khô sần. Giúp tăng lượng nước lên gấp 70% và được kiểm chứng da liễu an toàn cho da, kể cả làn da nhạy cảm, thường xuyên kích ứng với mỹ phẩm, hóa chất.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253074919_2c7b8ddcb2401135cd52b589d263d9b0_xydbsd.jpg</t>
+  </si>
+  <si>
+    <t>Sữa Rửa Mặt Chuyên Dụng Manyo Pure &amp; Deep Cleansing Foam 120ml</t>
+  </si>
+  <si>
+    <t>Sữa rửa mặt là một sản phẩm không thể thiếu trong quá trình chăm sóc da hàng ngày giúp giữ làn da sạch sẽ và khỏe mạnh. Sử dụng Sữa Rửa Mặt Chuyên Dụng Manyo Pure &amp; Deep Cleansing Foam có chứa phức hợp 10 loại hoa và ceramide sẽ giúp củng cố hàng rào độ ẩm cho da, giúp làm sạch da và mang lại cảm giác dễ chịu sau khi rửa mặt.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253111051_da3b83c4c4911ff42929da2959f75894_yloyxm.jpg</t>
+  </si>
+  <si>
+    <t>Viên Uống Chống Nắng Nội Sinh Murad Es Pomphenol Sunguard 60Pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompheno Sunguard – Murad Internal skincare là thực phẩm bảo vệ sức khỏe, thuộc nhóm hỗ trợ làm đẹp da, được sản xuất tại Paragon Laboratories, USA. Sản phẩm được bào chế dưới dạng viên, dùng trực tiếp bằng đường uống, thích hợp sử dụng cho người có nhu cầu làm đẹp da.
+</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253102782_2b906144f19edaa613e9cbad89d17d58_drdqh5.jpg</t>
+  </si>
+  <si>
+    <t>Tinh dầu dưỡng da Phyto Replenishing Oil Dermalogica 30ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermalogica Phyto Replenish Oil sẽ khôi phục lại hàng rào bảo vệ da để chống lại các tác nhân xấu từ môi trường xâm nhập, ngăn chặn những thương tổn trên da, dưỡng ẩm chuyên sâu cho da mềm mại và căng mịn, chống lại quá trình lão hóa da.
+</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253083544_f8a8e3b36da21d72fb56f47cd7f03900_txqzac.jpg</t>
+  </si>
+  <si>
+    <t>Huyết thanh phục hồi &amp; cân bằng hệ vi lợi khuẩn dành cho da yếu - tổn thương - giãn mao mạch RVB 30ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuôi dưỡng, phục hồi và cân bằng lại làn da với Serum dưỡng ẩm Microbioma . Lý tưởng cho da khô và da hở , huyết thanh này mang lại hiệu quả hydrat hóa lâu dài, củng cố hàng rào bảo vệ da và ngăn ngừa quá trình lão hóa. Công thức giàu dinh dưỡng, có các thành phần mạnh mẽ hoàn hảo cho da khô và da hở. Serum dưỡng ẩm Microbioma đảm bảo hệ vi sinh vật trên da của bạn được cân bằng, ngăn ngừa kích ứng và lão hóa. Nâng cao trải nghiệm chăm sóc da của bạn và tận hưởng những lợi ích của việc dưỡng ẩm, phục hồi và phục hồi lâu dài.
+</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253087140_e0f8c30889b5d863701ba1ec6a232057_mfxnng.jpg</t>
+  </si>
+  <si>
+    <t>INNOAESTHETICS INNO-EPIGEN ANTIOX SERUM/ SERUM CHỐNG OXY HÓA MẠNH MẼ INNOAESTHETICS INNO-EPIGEN ANTIOX SERUM</t>
+  </si>
+  <si>
+    <t>Serum giàu chất chống oxy hóa để bảo vệ tuyệt đối khỏi ô nhiễm và các gốc tự do. Ngăn ngừa lão hóa da và mang lại làn da căng mọng và mềm mại suốt cả ngày dài. Serum đa chức năng bảo vệ khỏi các gốc tự do, quá trình oxy hóa da và ô nhiễm, bên cạnh đó thúc đẩy quá trình giải độc tế bào. Kết quả là một phương pháp điều trị chống lão hóa hiệu quả cao, sửa chữa DNA của tế bào và củng cố các mô đồng thời bảo vệ da hoàn toàn khỏi các tác động bên ngoài</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253122586_48c848907660f0966a2ba43f6fb89913_nd9a5u.jpg</t>
+  </si>
+  <si>
+    <t>Kem Dưỡng Kiềm Dầu Hỗ Trợ Giảm Mụn Laboratorios BABE Stop AKN Mattifying Moisturiser</t>
+  </si>
+  <si>
+    <t>Kem Dưỡng Kiềm Dầu Hỗ Trợ Giảm Mụn Laboratorios BABE Stop AKN Mattifying Moisturiser với kết cấu siêu nhẹ, có chứa Niacinamide và Salicylic Acid sẽ giúp điều tiết bã nhờn, tiêu sừng và ngăn ngừa mụn, giúp làn da tươi sáng và khỏe mạnh hơn; có độ pH bằng 5 tương đồng với độ pH tự nhiên của da.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253096844_d63efb5da939ec5033a1c05c6cc3e8ce_ez2qht.jpg</t>
+  </si>
+  <si>
+    <t>Kem tái tạo điều trị mụn ẩn và mụn bít tắc ALPHA BETA CREAM 30ml</t>
+  </si>
+  <si>
+    <t>Một loại kem hoạt tính giúp cân bằng sự tiết bã nhờn và đổi mới làn da dầu có vấn đề. Tạo điều kiện thuận lợi đáng kể cho việc loại bỏ các mụn nhỏ trong điều trị lâm sàng. Góp phần lớn vào việc tái tạo các mô bị tổn thương bởi mụn trứng cá. Cải thiện kết cấu da, làm mờ vết sẹo và vết thâm</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253126001_fd66b55e22298b487d8a0d7bf9d9b5aa_mjhilm.jpg</t>
+  </si>
+  <si>
+    <t>Peel ĐIỀU TRỊ THÂM VÙNG NHẠY CẢM Innoaesthetics 01 MELINE INTIMATE - Inno lẻ 1 ống 2ml</t>
+  </si>
+  <si>
+    <t>Sự kết hợp của các thành phần của nó cung cấp hoạt động khử sắc tố và chống oxy hóa mạnh, làm giảm hiệu quả tình trạng tăng sắc tố ở vùng kín. Làm sạch khu vực và sau đó thoa dung dịch MELINE 01 Intimate, để nó hoạt động trong 5 đến 10 phút. Sau đó, loại bỏ nó bằng cách sử dụng nhiều nước và chất tẩy rửa nhẹ. Liệu trình : 4 – 6 buổi (10-14 ngày / 1 lần)</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253131504_51b53e9c713e17afa0b85a31aa2285e8_vxfucc.jpg</t>
+  </si>
+  <si>
+    <t>Kem Dưỡng L'Oreal Ngừa Lão Hóa Ban Ngày Revitalift Moisturizing Cream Day SPF 35/PA++ 50ml</t>
+  </si>
+  <si>
+    <t>Kem Dưỡng Ngừa Lão Hóa Ban Ngày L'Oreal Revitalift Moisturizing Cream Day SPF 35/PA++ 50ml là kem dưỡng dành cho ban ngày với hoạt chất ngăn ngừa lão hóa Pro-Retinol A giúp hỗ trợ cải thiện nếp nhăn. Đồng thời với thành phần Centella Asiatia dưỡng da tươi trẻ từ bên trong nhờ khả năng thúc đẩy quá trình tổng hợp collagen giúp da lấy lại độ đàn hồi, căng mịn thuộc thương hiệu L'Oreal  đến từ Pháp.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253126195_91c1177f200f1b1fd05315d37cf42714_yb2cxm.jpg</t>
+  </si>
+  <si>
+    <t>Bộ peel và mặt nạ làm sạch da DMK Foamy Lift Masque &amp; Exoderma Peel</t>
+  </si>
+  <si>
+    <t>Bộ Chăm Sóc Da DMK Enzyme Home Kit Set 4 Món là bộ sản phẩm chăm sóc da đến từ thương hiệu mỹ phẩm DMK nổi tiếng của Mỹ. Đây là một trong những bộ sản phẩm chăm sóc da tại nhà được các tín đồ skincare săn đón ngay từ khi hãng cho ra mắt khi mang đến cho bạn một làn da được trẻ hóa căng tràn sức sống. Trộn 1 - 2 thìa Mặt Nạ DMK Foamy Lift Straffende Gesichtsmaske với một lượng tương ứng Dung Dịch Tẩy Tế Bào Chết DMK Exoderma Peel. Dùng chổi  trộn đều và quét lên da, từ vùng chân cổ lên toàn mặt. Da có thể có cảm giác khô hoặc căng sau khi sử dụng, hiện tượng này sẽ bình thường trở lại sau một vài ngày.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253145331_d7590d4f71680289f2532305ff6ed1d7_yyhrxp.jpg</t>
+  </si>
+  <si>
+    <t>Kem Ngủ Trắng Da BRTC Gold Panthenol Revital Sleeping Pack (SEASON 4)</t>
+  </si>
+  <si>
+    <t>Tất cả các thành phần này kết hợp làm cho tổng chăm sóc dưỡng ẩm, làm dịu và ngăn ngừa các dấu hiệu lão hóa. Nó cũng chứa 5,3% Panthenol (B5) và 5% Niacinamide (5%) để làm sáng da tổng thể và giúp giảm sắc tố siêu từ mụn trứng cá và tổn thương từ ánh nắng mặt trời.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253147741_eb892a9dfc30ca419eb3c24239b97a55_bw9w1a.jpg</t>
+  </si>
+  <si>
+    <t>Kem Dưỡng Numbuzin No1 Pantothenic B5 Active Smoothing 80ml</t>
+  </si>
+  <si>
+    <t>Với kết cấu dạng gel thẩm thấu nhanh, sản phẩm phù hợp sử dụng hàng ngày, không gây nhờn rít hay bít tắc lỗ chân lông. Kem dưỡng Numbuzin No.1 là lựa chọn lý tưởng cho da nhạy cảm, không chứa paraben, sulfate và hương liệu nhân tạo, mang lại làn da mềm mại và khỏe mạnh.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253150856_6a21f721b6e36043d6d2f6fc28d76f86_f3mj68.jpg</t>
+  </si>
+  <si>
+    <t>Tế bào gốc nhau thai hươu Purtier Placenta 6 Nhật Bản</t>
+  </si>
+  <si>
+    <t>Tế bào gốc nhau thai hươu Purtier Placenta phiên bản 6 sử dụng liệu pháp tế bào sống chứa các tế bào gốc và protein từ nhau thai hươu tươi để chống lại quá trình lão hóa. Thành phần tế bào gốc nhau thai hươu Purtier Placenta có tới 12 loại thảo dược quý hiếm phương Đông đem lại nhiều lợi ích cho cơ thể…</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253167167_fdae9f274ef3f6d4815915c06e1f38dc_scnigv.jpg</t>
+  </si>
+  <si>
+    <t>Tinh Chất Hỗ Trợ Giảm Thâm Kiehl's Dark Spot Solution Serum 15ml</t>
+  </si>
+  <si>
+    <t>Tinh Chất Hỗ Trợ Giảm Thâm Kiehl's Dark Spot Solution Serum là sản phẩm đến từ thương hiệu mỹ phẩm nổi tiếng Kiehl's. Tinh chất cô đặc phục hồi da mạnh mẽ, áp dụng công thức độc quyền của thương hiệu giúp cung cấp độ ẩm cho da chỉ với một giọt và mang lại vẻ rạng rỡ, tươi tắn và dưỡng ẩm trong thời gian dài.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253161522_a5f52f4b5cae3d319a356faf0a7daebe_c28xix.jpg</t>
+  </si>
+  <si>
+    <t>Tinh Chất Trẻ Hóa Da Asap A+ Super Serum With Retinol 15ml</t>
+  </si>
+  <si>
+    <t>Tinh Chất Trẻ Hóa Da Asap A+ Super Serum With Retinol 30ml là dòng sản phẩm đến từ thương hiệu Asap nổi tiếng. Với thành phần giàu dưỡng chất, Asap A+ Super Serum With Retinol hỗ trợ dưỡng da mang đến làn da trẻ trung, rạng rỡ.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253168463_34193ab51865f948322c7931091a375f_eabji9.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinh Chất Hỗ Trợ Dưỡng Trắng Trẻ 
+Hóa Da Asap Radiance Serum 15ml
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinh Chất Hỗ Trợ Dưỡng Trắng Trẻ Hóa Da Asap Radiance Serum 15ml là dòng sản phẩm đến từ thương hiệu Asap nổi tiếng. Với thành phần giàu dưỡng chất, Asap Radiance Serum hỗ trợ dưỡng trắng, hỗ trợ giảm thiểu các dấu hiệu lão hóa da cho làn da trở nên trắng sáng và mịn màng và săn chắc hơn. 
+</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253178244_a97b2340c4d2e7f9d78b26d32dec6304_jxdxsd.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serum Cấp Nước Caudalie SOS Vinosource 10ml
+</t>
+  </si>
+  <si>
+    <t>Serum SOS Caudalie được ví von như “thần dược” cho các làn da khô hạn, da dầu thiếu nước, nó có khả năng cung cấp độ ẩm cho da lên tới 127%, giảm sự mẩn đỏ của da nhạy cảm tới 61%. Con số được kiểm nghiệm bởi 20 tình nguyện viên của hãng.Thành phần dịu nhẹ organic 99,8% có khả năng cung cấp độ ẩm cho da lên tới 127%, giảm sự mẩn đỏ của da nhạy cảm tới 61%.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253179421_29c80bfa52065d3c9a8c3df83adae079_ax9h2l.jpg</t>
+  </si>
+  <si>
+    <t>Kem xanh khóa ẩm – Active shield cream - dưỡng ẩm, cấp nước, thẩm thấu nhanh</t>
+  </si>
+  <si>
+    <t>Kem là bước khóa ẩm, là hàng rào bảo vệ da, giúp giữ lại cái dưỡng chất từ serum. Kem có khả năng thẩm thấu siêu nhanh, lành tính dịu nhẹ, phù hợp với mọi loại da, kể cả da nhạy cảm. Cấp ẩm sâu, mang đến cảm giác sảng khoái tức thì và đánh thức năng lượng tiềm ẩn trong da. Chứa các chất chống oxy hóa, sản sinh collagen, cung cấp dưỡng chất. Bảo vệ làn da khỏi tác động môi trường bên ngoài và quá trình lão hóa</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253187721_bf805b517711189d5250f140ff3255f5_ywtnah.jpg</t>
+  </si>
+  <si>
+    <t>Nước Hoa Hồng Medik8 Daily Refresh Balancing Toner 150ml</t>
+  </si>
+  <si>
+    <t>Nước Hoa Hồng Medik8 Daily Refresh Balancing Toner 150ml là dòng sản phẩm chăm sóc da cao cấp đến từ thương hiệu Medik8. Với thành phần giàu dưỡng chất Medik8 Daily Refresh Balancing Toner mang đến làn da trẻ trung, tươi tắn hơn.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253199332_b101e55cb1bbd83de50a8511980df028_zbzs2h.jpg</t>
+  </si>
+  <si>
+    <t>Kem Dưỡng Thể Elizabeth Arden Green Tea Honey Drops Body Cream 500ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kem Dưỡng Thể Elizabeth Arden Green Tea Honey Drops Body Cream 500ml là sản phẩm đến từ thương hiệu Elizabeth Arden của Mỹ. Kem dưỡng thể Green Tea Honey Drops Body Cream vừa nuôi dưỡng làn da hoàn hảo mịn màng vừa mang đến mùi hương thơm nước hoa tinh tế cho cơ thể. </t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355282/z7031253195926_2935ec1faa7a5939cfe74be572a21b2b_pzjuaz.jpg</t>
+  </si>
+  <si>
+    <t>Kem dưỡng thể làm sáng da và làm đều màu da Skin Revealing Body Lotion 10% AHA 210ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin Revealing Body Lotion 10% AHA có khả năng loại bỏ tế bào chết nhẹ nhàng trên da cơ thể, hoàn toàn không gây mài mòn da, giúp làn da cơ thể mịn màng, đều màu và sáng khỏe.
+</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253208367_c506d446cb691210c17661240d18bf31_qtwivv.jpg</t>
+  </si>
+  <si>
+    <t>Sữa Tắm Giảm Mụn, Tẩy Tế Bào Chết MD CARE AHA &amp; BHA Exfoliating Body Wash 200ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sữa Tắm MD CARE AHA &amp; BHA Exfoliating Body Wash chứa AHA (Alpha Hydroxy Acid) và BHA (Beta Hydroxy Acid) giúp làm sạch sâu lỗ chân lông, loại bỏ bụi bẩn, mồ hôi và bã nhờn tích tụ – nguyên nhân chính gây mụn lưng, mụn ngực và mụn vai. Nhờ cơ chế tẩy tế bào chết hóa học dịu nhẹ, sản phẩm giúp lỗ chân lông thông thoáng, giảm nguy cơ hình thành nhân mụn mới và hỗ trợ làm dịu các nốt mụn hiện có.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253214058_124f3cd1f84cc3b393441b2403e920c3_s2yquw.jpg</t>
+  </si>
+  <si>
+    <t>Mặt Nạ Ngủ Kiehl's Ginger Leaf &amp; Hibiscus Firming Overnight Mask 100ml</t>
+  </si>
+  <si>
+    <t>Mặt Nạ Ngủ Kiehl's Ginger Leaf &amp; Hibiscus Firming Overnight Mask 100ml đến từ thương hiệu Kiehl's nổi tiếng của Mỹ. Kiehl's Ginger Leaf &amp; Hibiscus Firming Overnight Mask với các thành phần thiên nhiên lành tính, hỗ trợ cải thiện độ đàn hồi và làn da trở nên mịn màng trong khi ngủ.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253208667_3db0ff843c7fab16a5616adf789ffcdd_uge2o6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dung dịch cân bằng, tái tạo và làm sáng da dành cho da sạm nám Biologique Recherche Lotion P50 PIGM 400 250ml
+</t>
+  </si>
+  <si>
+    <t>Sản phẩm tăng cường làm mới biểu bì và giúp điều chỉnh sự tổng hợp melanin đồng thời nâng niu và bảo vệ làn da. Đây là một giải pháp hoàn hảo giúp phục hồi và cho bạn một làn da rạng rỡ với tông da đều màu và tươi sáng. Làm sáng da, giảm kích cỡ của các đốm sắc tố và ngăn chúng xuất hiện trở lại. Ức chế sự tổng hợp melanin. Cải thiện sự khỏe mạnh và chất lượng lớp biểu bì da. Làm đều và sáng nước da. Cân bằng pH trên bề mặt da. Cải thiện hiệu quả của các sản phẩm Biologique Recherche khác.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253225365_76cb0fd685bcd7af0ccfe2096a9a49b7_axpp0e.jpg</t>
+  </si>
+  <si>
+    <t>Viên uống giảm stress, bồi bổ sức khỏe tinh chất nhân sâm ấn độ Youtheory Ashwagandha 1,000 mg, 150 viên</t>
+  </si>
+  <si>
+    <t>Viên uống Youtheory Ashwagandha 1,000 mg giúp giảm căng thẳng do các áp lực trong đời sống gây ra. Ashwagandha (thường được gọi là Nhân sâm Ấn Độ) là một trong những thực vật học được đánh giá cao trong hệ thống Ayurvedic cổ đại của Ấn Độ. Nó thường được mô tả như là một chất thích nghi trực tuyến vì nó giúp cơ thể thích nghi với căng thẳng. Khi được sử dụng thường xuyên theo thời gian, Ashwagandha cải thiện đáng kể phản ứng của cơ thể đối với các tác nhân gây căng thẳng về tinh thần và thể chất, đồng thời tăng cường sức khỏe tổng thể.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253227039_2275b2e19c46ee0526757aad11d6cd7f_bshw82.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kem dưỡng Kiehl’s Ultra Facial Cream minisize 7ml
+</t>
+  </si>
+  <si>
+    <t>Kem dưỡng Kiehl’s Ultra Facial Cream minisize 7ml phù hợp mọi loại da với Glycerin, Squalane dưỡng ẩm tối ưu sẽ đem đến cho bạn một làn da láng mịn và mềm mượt. Kem thấm siêu nhanh không gây nhờn dính tí nào nhé. Minisize 7ml dùng rất tiết kiệm nha vì mỗi lần chỉ cần dùng 1 lượng khoảng 1 hạt đậu là đã đủ cấp ẩm cho toàn bộ gương mặt rồi. Dùng đầy đủ ngày 2 lần sáng tối sau bước toner ước chừng khoảng 1,5-2 tháng sẽ hết nha!</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253236069_5741c6de098f2cc8523564c26a654448_fi86up.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo 3 Kem dưỡng Kiehl’s Ultra Facial Cream minisize 7ml
+</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253272469_128a66414fc7437f0907d65b6f8de9ca_w3pkue.jpg</t>
+  </si>
+  <si>
+    <t>Nước Thần Dưỡng Da Estee Lauder Micro Essence Skin Activating Treatment Lotion 200ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinh Chất Dưỡng Da Estée Lauder Micro Essence Skin Activating Treatment Lotion 200ml là dòng nước thần dưỡng da cao cấp từ thương hiệu Estee Lauder của Mỹ. Estee Lauder Micro Essence tái sinh làm trẻ hóa của làn da, trả lại nét đẹp tuổi thanh xuân rõ lên trông thấy, để bạn luôn trông tươi tắn, rạng rỡ, đầy sức sống.
+</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253243719_dd63e74feb2985d886a9f6ef529f157f_elrlzp.jpg</t>
+  </si>
+  <si>
+    <t>Xịt Khoáng Evian Cấp Ẩm Và Làm Dịu Da 300ml</t>
+  </si>
+  <si>
+    <t>Xịt Khoáng Evian Cấp Ẩm Và Làm Dịu Da là sản phẩm xịt khoáng đến từ thương hiệu mỹ phẩm Evian của Pháp, thành phần nước khoáng từ tự nhiên giúp làm mát tức thì, cung cấp độ ẩm, dưỡng da mềm mại hơn đồng thời giữ cố định lớp trang điểm mang đến làn da tươi tắn, rạng ngời. Xịt Khoáng Evian Facial Spray chứa thành phần nước khoáng được lấy trực tiếp từ nguồn nước ở dãy Alps có cao 850m so với mực nước biển, nơi tuyết tan và mưa được ngấm qua những tảng đá. Viện Y học Pháp đã nghiên cứu và phát hiện ra nguồn nước khoáng này chứa rất nhiều khoáng chất có lợi cho sức khỏe con người không ở đâu có, đặc biệt là luôn cân bằng không thay đổi trong bất cứ nhiệt độ nào.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355286/z7031253245237_d97ecd3ac4c49e180563293fa309db2a_ebb3ee.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinh Chất Ngăn Ngừa Mụn Ekseption Hyaluronic ZnPCA Serum 75ml
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinh Chất Ngăn Ngừa Mụn Ekseption Hyaluronic ZnPCA Serum là sản phẩm đến từ thương hiệu mỹ phẩm nổi tiếng Ekseption. Sản phẩm còn chứa các dưỡng chất giúp ngăn chặn mụn, kiềm dầu, bảo vệ da khỏi các tác nhân môi trường bên ngoài. </t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355286/z7031253255117_3376d34ebe452121a94849519c4c401c_lm1uzy.jpg</t>
+  </si>
+  <si>
+    <t>Serum PPM Global Defense loại bỏ độc tố, giúp tái sinh và khắc phục tình trạng bí tắc lỗ chân lông.</t>
+  </si>
+  <si>
+    <t>Trong lần ra mắt sản phẩm Pur Oxygene, Công ty CPTM Dược Mỹ phẩm Đào Tiến kết hợp cùng Ty My Spa &amp; Beauty Salon, một cơ sở làm đẹp uy tín được nhiều chị em tin chọn. Đây là thương hiệu làm đẹp nổi tiếng trong việc nghiên cứu và đưa ra những giải pháp trị mụn hiệu quả, mang lại vẻ ngoài đầy tự tin, tươi trẻ trong môi trường sống thành thị.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355286/z7031253256080_f5fccec7dae48d46d7a2ea386342448d_j6dx4x.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kem giảm sần và săn chắc da INNOAESTHETICS 200ml </t>
+  </si>
+  <si>
+    <t>Kem dưỡng ẩm định hình cơ thể. Giảm mỡ cục bộ, chống cellulite và cải thiện độ săn chắc, đàn hồi của da, từ đó định hình vóc dáng. Kết cấu nhẹ, thẩm thấu ngay lập tức và không để lại vết bẩn trên quần áo hay cảm giác dính trên da.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355287/z7031253262023_a6fe8f32c2896b963afc7cc4ac66619c_aerv3h.jpg</t>
+  </si>
+  <si>
+    <t>Xịt chống nắng HELIOCARE 360° Invisible Spray SPF50+</t>
+  </si>
+  <si>
+    <t>Xịt chống nắng dạng xịt 200ml này thẩm thấu nhanh, không gây nhờn rít, không bết dính. Chống nước và hiệu quả trên da ướt, lý tưởng để sử dụng sau khi bơi. Xịt có thể xịt từ mọi góc độ, đảm bảo độ che phủ dễ dàng và đều đặn, mang lại hiệu quả chống nắng tối ưu.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355287/z7031253271650_a1b8943263b576017a1463d82433b39b_kddsbl.jpg</t>
+  </si>
+  <si>
+    <t>New Serum trắng da Obagi Clinical Vitamin C + Arbutin Brightening Serum 30ml</t>
+  </si>
+  <si>
+    <t>Tinh chất dưỡng trắng da OBAGI CLINICAL Vitamin C+ Arbutin Brightening Serum là sự kết hợp hoàn hảo giữa 2 thành phần làm sáng da bậc cao với nồng độ tối ưu gồm 10% Vitamin C + Arbutin, giúp tác động trực tiếp ở cấp độ tế bào, mang lại sự khác biệt cho làn da sau 24 giờ khi sử dụng. Ngoài ra trong serum này còn có sự kết hợp của hoạt chất chống oxy hóa mạnh mẽ từ quả mâm xôi Cloud Berry giúp chặn đứng các tác nhân gây hại từ môi trường bao gồm tia cực tím và các gốc tự do, cộng hưởng sự hoạt động với Vitamin C nhằm cải thiện sắc tố da một cách toàn diện từ sâu bên trong.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253276855_67606a62c52704d764bd85e7b647ef24_t9zcu1.jpg</t>
+  </si>
+  <si>
+    <t>Móp Serum trắng da Obagi Clinical Vitamin C + Arbutin Brightening Serum 30ml</t>
+  </si>
+  <si>
+    <t>Mặt nạ đất sét lưu huỳnh DBH 30ml</t>
+  </si>
+  <si>
+    <t>Thấm sâu qua lớp tế bào chết tích tụ, mang lại làn da sạch mịn màng hơn. Dành cho da dầu và da mụn, Kẽm Oxit và Lưu huỳnh giúp hấp thụ dầu thừa và khử trùng lỗ chân lông, kháng khuẩn và điều tiết bã nhờn. Chiết xuất Khuynh diệp tự nhiên giúp giảm kích ứng và tạo lớp màng kháng khuẩn bảo vệ, trong khi Nha đam làm dịu và thúc đẩy quá trình lành thương. Có thể sử dụng như một sản phẩm điều trị mụn qua đêm để làm khô và làm lành vết thương. Dành cho da dầu và da mụn.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253289932_8f1290b83b8f4ca952662b66860b156f_n67wwn.jpg</t>
+  </si>
+  <si>
+    <t>Gel chống nắng Anessa Tone Up Brightening UV Sunscreen Gel SPF50+/PA++++</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253296813_e4db2f7f4e2a3c122a431ad0c184bf41_jqpia4.jpg</t>
+  </si>
+  <si>
+    <t>Tinh Chất Torriden Cấp Ẩm Phục Hồi Da Dive-In Low Molecular Hyaluronic Acid Serum 50ml</t>
+  </si>
+  <si>
+    <t>Tinh chất cấp ẩm, phục hồi da Torriden Dive-In Low Molecular Hyaluronic Acid Serum đang đứng top 1 trên app Hwahae, ứng dụng mỹ phẩm tốt nhất của Hàn Quốc. Sản phẩm thuần chay, có chứa axit nhẹ, bổ sung ẩm cho da, không làm khô căng, không nhờn rít khó chịu khi sử dụng. Serum chứa phức hợp 5D-Complex Hyaluronic Acid được bào chế với những kích thước khác nhau. Kết hợp với D-Panthenol, Allantoin và Madecassoside hỗ trợ làm dịu, giảm tình trạng kích ứng, chăm sóc làn da bị tổn thương hiệu quả.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253297034_e7f6e0e6e3e94e3cf6512166babe2a14_yjoq8x.jpg</t>
+  </si>
+  <si>
+    <t>Kem dưỡng sáng La Prairie White Caviar Crème Extraordinaire 60 ml</t>
+  </si>
+  <si>
+    <t>Kem Dưỡng Trắng Da La Prairie White Caviar Creme Extraodinaire được chiết xuất từ phân tử Lumidose – phân tử làm sáng mạnh nhất và độc quyền của thương hiệu, cùng Chiết Xuất Trứng Cá Tầm Vàng kết hợp trong một chiếc hộp được chế tác tinh xảo, mang nghệ thuật và khoa học hòa quyện trong một kiệt tác độc đáo. Ánh sáng – và thời gian – được nắm giữ trọn vẹn.Sau nhiều năm nghiên cứu, bao gồm việc sàng lọc 50,000 thành phần để tìm ra hoạt chất làm sáng mạnh mẽ nhất, Lumidose đã được các nhà khoa học của La Prairie phát hiện. Độc quyền trong White Caviar Crème Extraordinaire, phân tử đã được cấp bằng sáng chế này là thành phần hiệu quả nhất trong việc hỗ trợ ức chế sản sinh melanin. Các đốm nâu dường như mờ dần, như thể được xóa nhòa bởi một tia sáng mạnh mẽ.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355291/z7031253316152_636f6174eb9c40e5afa5abb4bd04e45e_ykx7vi.jpg</t>
+  </si>
+  <si>
+    <t>Calm Water Gel Dermalogica – Gel dưỡng ẩm &amp; làm dịu cho da nhạy cảm 177ml</t>
+  </si>
+  <si>
+    <t>Calm Water Gel Dermalogica Giải pháp dưỡng ẩm dạng gel nước không trọng lượng giúp thêm nước cho làn da khô, nhạy cảm. Công thức gel tươi mát chuyển hóa thành chất lỏng làm dịu da khi được thoa, tạo thành một hàng rào không trọng lượng chống lại sự tấn công của môi trường. Công nghệ Axit Hyaluronic kép hoạt động ở các lớp bề mặt da khác nhau để tăng và khóa độ ẩm.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355291/z7031253304440_747f2a425a86797bfc3219db5c3ec09c_dh4fms.jpg</t>
+  </si>
+  <si>
+    <t>Tinh Chất + Kem Dưỡng Trẻ Hóa Da Whoo Hwanyu Imperial Youth Essence 7ml +5ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhân sâm núi toàn thảo Đông trùng hạ thảo: Thành phần mang "Huyết", hiệu quả kích thích tuần hoàn và tăng cường sinh lực da. Lộc nhung Đông trùng hạ thảo: Thành phần mang "Khí", hiệu quả kích thích tuần hoàn và tăng cường sinh lực cho da. Hà thủ ô Đông trùng hạ thảo: Thành phần mang "Tinh, diệu quả vượt trội trong bổ sung tân dịch mất đi do lão hoá. Thiên sơn tuyết liên hoa: Loài hoa quý chỉ mọc ở vùng núi cao Hymalaya cách mặt nước biển 4000m, mất 6-8 năm mới nở hoa một lần, giúp điều chỉnh sự cân bằng cho da, kích thích trao đổi chất và giữ cho da luôn sáng trong, rạng rỡ.  Cùng hơn 70 thành phần Đông y ngũ hành quý hiếm khác giúp tối ưu hóa hiệu năng của các thành phần chính nhờ nguyên lý phối hợp Quân Thần Tá Sứ.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355291/z7031253310896_0b0ee0e409c93a53ea9cf8d4420de28e_fuk5yt.jpg</t>
+  </si>
+  <si>
+    <t>Tinh Chất Hỗ Trợ Trẻ Hóa Da Fusion Meso Retinol 1.0 30ml</t>
+  </si>
+  <si>
+    <t>Tinh Chất Hỗ Trợ Trẻ Hóa Da Fusion Meso Retinol 1.0 là sản phẩm cao cấp đến từ  thương hiệu Fusion Meso Tây Ban Nha. Với công thức chứa Retinol tinh khiết 1.0, sản phẩm này giúp làm sáng da, cải thiện độ đàn hồi và giảm thiểu dấu hiệu lão hóa.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355293/z7031253325286_eabcb164d2218dfd3d52ec5ffa46a299_ijjgqh.jpg</t>
+  </si>
+  <si>
+    <t>Serum Hyaluronic Butiq Lab Hàn Quốc 100ml</t>
+  </si>
+  <si>
+    <t>Serum Hyaluronic Butiq Lab Hàn Quốc là sản phẩm được sản xuất bởi thương hiệu dược mỹ phẩm BUTiQ LAB Hàn Quốc , sản phẩm đã được trải nghiệm và đánh giá cao từ những khách hàng, các chuyên gia ngành mỹ phẩm đánh giá cao bởi những tác dụng tuyệt vời mà Serum hyaluronic Butiq Lab mang lại. Bởi sản phẩm có khả năng cấp ẩm cùng nhiều dưỡng chất được chiết xuất tự nhiên giúp da mịn màng, căng bóng.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355294/z7031253327013_fb079f3428ac695e8184d63b3de6dca8_xw254x.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dầu Tẩy Trang Táo Innisfree Apple Seed Cleansing Oil 150ml
+</t>
+  </si>
+  <si>
+    <t>Apple Seed Cleansing Oil là sản phẩm tẩy trang dạng dầu của Innisfree với thành phần từ nước ép táo xanh và trà xanh giúp tẩy nhẹ nhàng tẩy sạch lớp trang điểm mà vẫn không gây kích ứng da, làm trắng sáng, chống oxy hóa, và trẻ hóa làn da. Apple Seed Cleansing Oil là dầu tẩy trang đặc biệt phù hợp với làn da dầu, dễ bị mẫn cảm. Sản phẩm có thể dùng để tẩy trang cả cho mắt, má, môi và mặt rất tiện lợi.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355295/z7031253337338_bd0ce749dc0696a741bad5155b51d1e2_ystzsp.jpg</t>
+  </si>
+  <si>
+    <t>Kem Dưỡng SK-II Skinpower Advanced Cream 80G</t>
+  </si>
+  <si>
+    <t>Kem dưỡng SK-II SkinPower Advanced Cream là sản phẩm dưỡng da cao cấp đến từ thương hiệu SK-II nổi tiếng của Nhật Bản. Kem được chiết xuất từ tinh chất Pitera độc quyền của SK-II, cùng với các thành phần dưỡng ẩm khác như Hyaluronic Acid, Glycerin, giúp cung cấp độ ẩm dồi dào cho da, giúp da mềm mại, mịn màng và căng mọng.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355296/z7031253339388_91298c936a44df13c5dbda3187d79e6e_do1lcl.jpg</t>
+  </si>
+  <si>
+    <t>Kem Dưỡng Dạng Nước Kiehl's Calendula Serum-Infused Water Cream 100ml</t>
+  </si>
+  <si>
+    <t>Kem Dưỡng Dạng Nước Kiehl's Calendula Serum-Infused Water Cream dành cho cả nam và nữ đến từ thương hiệu Kiehl's nổi tiếng của Mỹ. Kiehl's Calendula Serum-Infused Water Cream giúp thấm sâu, làm dịu và cấp ẩm dài lâu, làn da sẽ trở nên ẩm mịn và sáng khoẻ hơn hẳn. Giúp da đều màu rõ rệt và rạng rỡ hơn chỉ trong 1 tuần. Giúp làm dịu và giảm kích ứng da khi sử dụng thường xuyên. Giúp tăng cường kết cấu da, cải thiện cho làn da xỉn màu và các đường nhăn khô, thiếu nước.Giúp da mịn mượt vì được cấp nước suốt 24 giờ. Phù hợp cho mọi loại da, kể cả da dầu và da hỗn hợp.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355297/z7031254530606_bec07b23706b19fd43581f12752e720c_n3rp3n.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peel da Ahohaw Triangle Peel PA 80ml Hàn Quốc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peel da Ahohaw Triangle Peel PA giúp da căng bóng, sáng khỏe, dễ dàng hấp thu dưỡng chất từ các sản phẩm dưỡng, đẩy lùi các khuyết điểm và dấu hiệu của lão hóa.Loại bỏ lớp tế bào da chết, sần sùi, thúc đẩy tái tạo tế bào mới. Loại bỏ mụn li ti, mụn cám, mụn đầu đen giúp da khỏe mạnh, mịn màng. Thu hẹp lỗ chân lông. Kích thích sản sinh collagen và elastin cho da đàn hồi. Giữ ẩm và làm căng bóng da. Làm giảm vết thâm, sạm da, giúp da sáng đều màu. Đào thải độc tố dưới da, đồng thời tăng khả năng hấp thu dưỡng chất từ serum, kem dưỡng, mặt nạ. Bổ sung dưỡng chất cho làn da rạng rỡ. Làm chậm quá trình lão hóa da tự nhiên, làm giảm mọi dấu hiệu lão hóa sớm. Dùng làm sạch sâu : Sử dụng 1,5ml (với da nhạy cảm), và 3ml (đối với da xỉn màu, lão hóa). Dùng ngón tay xoa đều PA toàn mặt. Để trên da sau 2 phút (đối với da nhạy cảm), 5 phút (đối với da lão hóa, sỉn màu).Rửa sạch mặt. Đắp mặt nạ/ bôi 1 lớp serum/ kem phục hồi làm dịu da. Sử dụng tối đa 2 lần/ tuần và dùng KCN hằng ngày. Dùng để Peeling: .Lấy 3ml PA xoa đều mặt theo thứ tự Trán -&gt; mũi -&gt; má-&gt; hàm. Sau đó lấy thêm 2ml bôi vào vùng chữ T mũi và hàm, dùng ngón tay chà xát, massage vùng thâm, vùng nám, vùng da khuyết điểm nhiều trong 1 phút và để trong vòng 4 phút. Rửa sạch mặt và đắp mặt nạ làm dịu da. Lưu lý: apple trành vùng mắt, vết thương hở, để không quá 5 phút rồi rửa lại với nước ẩm. Sử dụng tối đa 2 lần/ tuần và bắt buộc dùng kcn hằng ngày nhé. Sản phẩm thay thế tẩy da chết, nên khi sử dụng em này khách hàng không dùng thêm các dòng tẩy da chết khác.
+</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355298/z7031254548734_14cba776748dce12f4b064076f57d5d5_xozphq.jpg</t>
+  </si>
+  <si>
+    <t>Serum Hỗ Trợ Trẻ Hóa, Làm Sáng Da Skinceuticals Discoloration Defense 30ml</t>
+  </si>
+  <si>
+    <t>Serum Hỗ Trợ Trẻ Hóa, Làm Sáng Da Skinceuticals Discoloration Defense 30ml là dòng sản phẩm hỗ trợ dưỡng da đến từ thương hiệu kinceuticals nổi tiếng. Skinceuticals Discoloration Defense đang là item HOT được phái đẹp ưa chuộng.Serum Hỗ Trợ Trẻ Hóa, Làm Sáng Da Skinceuticals Discoloration Defense 30ml hỗ trợ dưỡng ẩm làm sáng da.Hỗ trợ làm giảm nám, sạm, tàn nhang. Hỗ trợ làm mờ vết thâm do mụn. Hỗ trợ làm cho da trở nên đều màu hơn.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254566634_6c3879319082441b5e059adc4c104e9b_n1xqru.jpg</t>
+  </si>
+  <si>
+    <t>Biolumin-C Brightening Gel Moisturizer 7ml</t>
+  </si>
+  <si>
+    <t>Dưỡng ẩm hàng ngày kết hợp làm sáng, cung cấp lớp ẩm mỏng nhẹ, đem lại sự rạng rỡ và vẻ ngoài khoẻ đẹp cho làn da. Phức hợp Vitamin C siêu ổn định với công nghệ sinh học tái kích hoạt tiên tiến giúp thúc đẩy tối đa hiệu quả làm sáng và củng cố hàng rào bảo vệ. Công thức giàu chất chống oxy hóa với Squalane và5 loại Hyaluronic Acid khác nhau giúp cung cấp đủ độ ẩm và giảm thiểu sự xuất hiện của vết nhăn, vết chân chim. Chiết xuất từ hoa Verbascum Thapsus mang đến hiệu quả làm sáng tức thì. Phytic Acid và Enzyme Bí ngô giúp tẩy tế bào chết, hỗ trợ quá trình tái tạo da tự nhiên.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254537677_9fb420db43b33fabeca80c17279eba11_bczpft.jpg</t>
+  </si>
+  <si>
+    <t>Tinh Chất Peel Căng Bóng, Trẻ Hóa Làn Da Ekseption Retin Oil Peel 5ml</t>
+  </si>
+  <si>
+    <t>Tinh Chất Peel Căng Bóng, Trẻ Hóa Làn Da Ekseption Retin Oil Peel là sản phẩm đến từ thương hiệu mỹ phẩm nổi tiếng Ekseption. Với công thức độc quyền từ thương hiệu, sản phẩm giúp phục hồi cấu trúc da khỏe mạnh và là bước đệm hoàn hảo cho các bước chăm sóc da tiếp theo. Làm sạch da với sữa rửa mặt. Lấy 0.5ml Ekseption Retin-oil Peel ra ngoài chén thủy tinh (chén được rửa sạch lau khô).  Dùng cọ quét đều lên trên bề mặt da. Sau đó, vỗ nhẹ nhàng bằng các đầu ngón tay, lưu lại trên da 3 phút.Thực hiện lớp thứ 2 tương tự như lớp thứ 1. Dùng bông cotton thấm nước và lau sạch lại bề mặt da.Thoa dưỡng phục hồi lên bề mặt da sau peel.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254543663_e9ba3764b051d3c022fb9f8941ebb493_fnt0kq.jpg</t>
+  </si>
+  <si>
+    <t>Kem che khuyến điểm chống nắng EGF Blemish Balm</t>
+  </si>
+  <si>
+    <t>EGF Blemish Balm là sản phẩm kết hợp dưỡng da và trang điểm thành một loại kem, có khả năng bảo vệ da vừa giúp làm đều màu, dưỡng ẩm và tông màu cho mọi loại da. Sản phẩm có kết cấu mỏng nhẹ, sử dụng công nghệ kết hợp màu sắc hoàn hảo sẽ ngay lập tức mang đến tông màu da tự nhiên, đều màu và rạng rõ. EGF Blemish Balm kết hợp Titanium Dioxide có khả năng chống nắng và các yếu tố tăng trưởng biểu bì (EGFs) giúp làm mở nếp nhãn, chống lão hóa. Bên cạnh đó, các thành phần dầu hạt jojoba, panthenol, allan-toin, bơ hạt mỡ giúp giữ cho da đù độ ẩm cả ngày, khô thoáng và không gây mụn. Titanium Dioxide: bảo vệ làn da khỏi tia UV có hại của mặt trời. Glycine Soja Oil (dầu Đậu nành): giàu Vitamin E. giúp tăng cường sức khỏe làn da.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254558447_3b252f0426ee38f245ce78270f1c33c6_xbou6v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dung dịch Peel da Salix 25 DBH 125ml
+</t>
+  </si>
+  <si>
+    <t>Bộ sản phẩm trị liệu chuyên nghiệp hoàn chỉnh này bao gồm Dermaesthetics Salix 25 chemical peel; một loại peel chuyên nghiệp với 25% axit salicylic dành cho da dầu và da mụn. Nhờ axit salicylic, da được tẩy tế bào chết, mang lại làn da mịn màng, sáng hơn, sạch hơn và đều màu hơn. Sản phẩm peel này cũng có thể được sử dụng để hỗ trợ điều chỉnh sắc tố da. Sau khi hoàn tất liệu trình, da sẽ mất khoảng 5 - 7 ngày để hồi phục, có thể xảy ra hiện tượng sừng hóa nhẹ đến trung bình và mất nước tạm thời. Liệu trình này chỉ áp dụng cho da loại Fitzpatrick 1 - 3.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254579828_cbdc43eb47eb435940620a13a669b968_erxm5i.jpg</t>
+  </si>
+  <si>
+    <t>Tinh Chất Có Thể Bôi Hoặc Lăn Kim Vi Điểm Tại Nhà DX Microneedle Roller</t>
+  </si>
+  <si>
+    <t>Bằng cách tạo ra các vết thương siêu nhỏ trên da để kích thích sản sinh Collagen và Elastin, bộ lăn kim DX Micro Roller giúp da loại bỏ nếp nhăn, làm đều màu da, thu nhỏ lỗ chân lông, cải thiện sẹo thâm, sẹo rỗ và tình trạng lão hóa, da chảy xệ đồng thời giúp da hấp thu dưỡng chất từ các sản phẩm chăm sóc da tối ưu. CHI TIẾT SẢN PHẨM. LĂM KIM VI ĐIỂM TẠI NHÀ LÀ GÌ? . Lăn kim vi điểm (Micro - needing) là phương pháp tạo ra các tổn thương siêu nhỏ (lỗ kim châm) trên da để báo hiệu làn da của bạn cần “sửa ᴄhữa”. Quá trình sửa ᴄhữa sẽ kích thích sản sinh Collagen và Elastin lên bề mặt giúp loại bỏ các rãnh nhăn, nếp nhăn, một số loại sẹo giúp làn da căng bóng và đều màu. Về cơ bản, phương pháp này nhằm cải thiện mọi dấu hiệu lão hóa sớm và tăng khả năng hấp thu dưỡng chất cho da.  Chỉ có một kỹ thuật lăn kim vi điểm đó là lăn theo chiều dọc, ngang và đường chéo trong vòng 3 phút. Bạn có thể thực hiện phương pháp này 1-2 lần/tuần.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254556699_e669feb09fcbcce3da65ea3341e28572_dt6c5g.jpg</t>
+  </si>
+  <si>
+    <t>PHYSIODERMIE Stabilizing Lotion - Nước hoa hồng cân bằng PH 200ml</t>
+  </si>
+  <si>
+    <t>Nước hoa hồng giúp cân bằng độ pH, se khít chân lông, kháng viêm, làm dịu da mẩn đỏ, nhạy cảm, xung huyết, làm sạch tàn dư bụi bẩn còn sót lại sau bước tẩy trang và rửa mặt. Lý tưởng cho vùng da sau laser, lăn kim, phẩu thuật, da dị ứng do trang sức.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254584022_bf0a4806f61e51e5ba1daa23f85ee37c_gmexbe.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dầu Tẩy Trang Shu Uemura  Cleansing Oil 150ml
+</t>
+  </si>
+  <si>
+    <t>Dầu Tẩy Trang Shu Uemura  Cleansing Oil 150ml là dòng sản phẩm đến từ thương hiệu Shu Uemura nổi tiếng của Nhật Bản.  Với công thức vượt trội Shu Uemura Cleansing Oil không chỉ loại bỏ lớp trang điểm và bụi bẩn mà còn hỗ trợ chăm sóc làn da bạn tươi trẻ.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254597580_57e3d7d619281816c0912def7df1f08f_anyrsm.jpg</t>
+  </si>
+  <si>
+    <t>Tẩy Tế Bào Chết Hóa Học Cosrx Hỗ Trợ Giảm Đầu Đen, Mụn Ẩn, Lỗ Chân Lông To BHA Blackhead Power Liquid 50ml</t>
+  </si>
+  <si>
+    <t>Tẩy Tế Bào Chết Hóa Học Hỗ Trợ Giảm Đầu Đen, Mụn Ẩn, Lỗ Chân Lông To Cosrx BHA Blackhead Power Liquid là dòng sản phẩm tẩy tế bào chết đến từ thương hiệu Cosrx Hàn Quốc. Với công thức chứa thành phần BHA, chiết xuất vỏ cây liễu và Niacinamide giúp làm sạch tế bào chết một cách nhẹ nhàng, chăm sóc và hỗ trợ giảm mụn hiệu quả</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254595760_b1d7679bf36fc2d25dfafc6e6302f090_qwblmv.jpg</t>
+  </si>
+  <si>
+    <t>Kem chống lão hóa ban đêm cho da giãn mao mạch – Dermedic ANGIO PREVENTI NANO VIT C Active anti-wrinkle night cream – 55gr</t>
+  </si>
+  <si>
+    <t>Dermedic ANGIO PREVENTI NANO VIT C Active Anti-Wrinkle Night Cream là kem dưỡng ngăn ngừa lão hóa, giảm kích ứng, ngăn nếp nhăn vào ban đêm, phù hợp với da giãn mạch máu, da mỏng yếu do lão hóa đem lại. Nhờ hoạt chất nổi bật Nano vitamin C, giúp bảo vệ da chống lại tác hại của bức xạ UV, đẩy nhanh quá trình tổng hợp collagen, chống oxy hóa. ANGIO là dòng sản phẩm chuyên dụng điều trị da giãn mao mạch, da mẩn đỏ dễ dị ứng với tác dụng làm mềm da, ngăn ngừa tình trạng đỏ da, làm bền mạch máu.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355301/z7031254599072_60e8d77cd4b1b306731749785b95d921_mjhnbj.jpg</t>
+  </si>
+  <si>
+    <t>MELANYC PEPTIDE - TINH CHẤT CẢI THIỆN NÁM, DƯỠNG SÁNG DA lẻ 1 ống</t>
+  </si>
+  <si>
+    <t>Sản phẩm chuyên dùng và được áp dụng với phương pháp điện di, lăn kim,... giúp sáng da, chăm sóc đặc biệt các vết nám, tăng sắc tố sau viêm, Laser/ Peeling không đúng, cung cấp dưỡng chất cần thiết cho da nám. Là serum dưỡng da cao cấp với công thức độc quyền giúp làm sáng da, mờ thâm nám, tàn nhang và làm chậm quá trình lão hóa hiệu quả. Sản phẩm phù hợp với mọi loại da, đặc biệt là da xỉn màu, không đều màu.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355301/z7031254575844_3e8c43e7f724d26628269aa7f6c42862_mcncmd.jpg</t>
+  </si>
+  <si>
+    <t>Dầu cá không mùi Blackmores Fish Oil Mini Caps Úc 400 viên</t>
+  </si>
+  <si>
+    <t>Dầu cá là sản phẩm bổ sung Omega-3 giúp phát triển mắt và não bộ cực kì tốt được rất nhiều người tin dùng và sử dụng. Tuy nhiên, dầu cá được chiết xuất từ cá tươi thiên nhiên nên không thể tránh khỏi mùi tanh đặc trưng khiến nhiều người ái ngại. Dầu cá không mùi Blackmores loại bỏ các mùi tanh giúp người sử dụng dễ dàng sử dụng và tiếp nhận.Viên dầu cá không mùi Blackmores với hàm lượng Omega-3 lớn giúp cải thiện trí nhớ, phát triển trí não ở trẻ em và người trưởng thành. Đồng thời giúp phát triển võng mạc, cho mắt sáng hơn, ngăn ngừa các bệnh về mắt. Sử dụng dầu cá giúp bảo vệ tim mạch, giảm các bệnh về tim mạch, nuôi dưỡng một trái tim khỏe mạnh, ngăn ngừa tình trạng đột quỵ thường xuyên xảy ra ở người lớn tuổi. Thành phần trong dầu cá không mùi Blackmores có tác dụng giảm đau xương khớp, đồng thời giúp xương khớp hoạt động trơn tru hơn, trách khô các khớp xương. Sử dụng dầu cá thường xuyên và liên tục giúp tăng sức đề kháng cho cơ thể, tránh việc xâm nhập của vi khuẩn, vi rút khiến suy giảm sức khỏe cơ thể. Viên dầu cá không mùi Blackmores được sản xuất trên công nghệ hiện đại giúp khử đi mùi tanh đặc trưng của cá, giúp người sử dụng có thể nuốt dễ dàng mà không gây nhợn ói.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254618095_5d8704b20aec65913068b21787db5d6f_xnx57m.jpg</t>
+  </si>
+  <si>
+    <t>Kem dưỡng ẩm cho da dầu Dermalogica Active Moist 50ml</t>
+  </si>
+  <si>
+    <t>Kem dưỡng ẩm cho da dầu Dermalogica Active Moist có khả năng thẩm thấu nhanh và không để lại cảm giác nhờn rít trên da, giúp cung cấp độ ẩm sâu cho da, làm mịn và cải thiện rõ rệt bề mặt da.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254605616_b8cc019a9248b254d81dfa7e69c35bce_kc0twc.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peel da chuyên sâu, tẩy da chết DBH 125ml </t>
+  </si>
+  <si>
+    <t>Bộ sản phẩm trị liệu chuyên nghiệp hoàn chỉnh với công nghệ lột da hóa học Dermaesthetics SLG; một loại lột da Jessner chuyên nghiệp được điều chỉnh với thành phần chính là Axit Salicylic, Axit Lactic và Axit Glycolic. Nhờ các axit hỗn hợp này, làn da được tái tạo bằng cách tẩy tế bào chết ở lớp ngoài cùng. Liệu trình này có lợi cho làn da lão hóa, tăng sắc tố và cần tái tạo tế bào. Sau khi hoàn tất liệu trình, da sẽ nghỉ dưỡng khoảng 5 - 7 ngày, dự kiến ​​sẽ xuất hiện hiện tượng sừng hóa nhẹ đến trung bình và mất nước tạm thời. Làn da sẽ săn chắc, mịn màng, sáng hơn và đều màu hơn. Liệu trình này có thể được sử dụng cho da loại Fitzpatrick 1 - 5. Làn da sẽ săn chắc, mịn màng, sáng hơn và đều màu hơn.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254618404_b7e2beaab54cd6f4b0dc4ac6fe593cfb_csdknn.jpg</t>
+  </si>
+  <si>
+    <t>GIGI LOTUS MOISTURIZIN SERUM – HUYẾT THANH TRẺ HÓA VÀ PHỤC HỒI DA</t>
+  </si>
+  <si>
+    <t>GIGI LOTUS MOISTURIZIN SERUM Nhũ tương siêu nhẹ với hàm lượng axit hyaluronic cao cho phép bạn dưỡng ẩm lâu dài cho các lớp sâu của da. Nó có tác dụng trẻ hóa, có đặc tính chống oxy hóa và tối ưu hóa quá trình hô hấp của tế bào. Huyết thanh giúp tăng cường quá trình tái tạo và tăng sinh tế bào, thúc đẩy quá trình làm lành và phục hồi da nhanh chóng sau các ca bong tróc, bỏng rát, phẫu thuật thẩm mỹ. Nó có đặc tính chống viêm và khử trùng. Mang đến cảm giác nhẹ nhàng và tươi mát.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254630467_0fc46b447d1770a448b51f16023df0ce_dmkbys.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serum tăng cường dưỡng ẩm HYDRAMEMORY
+WATER SOURCE SERUM 30ml</t>
+  </si>
+  <si>
+    <t>Hydramemory Water Source Serum là serum với công thức làm dịu nhẹ cung cấp hydrat hóa và làm sáng da bị mất nước và xỉn màu. Sản phẩm được tạo ra từ công thức thuần chay với công nghệ dưỡng ẩm phù hợp cho mọi làn da: Prickly Pear Extract từ nông nghiệp tái tạo hữu cơ, Macro Hyaluronic Acid và cấu trúc mô phỏng sinh học giúp mang lại sự mịn màng và căng mọng tức thì cho làn da.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254631365_bb5cae0ce8325b22fb2cd993825bbd2c_o3miid.jpg</t>
+  </si>
+  <si>
+    <t>Viên Uống Blackmores Hỗ Trợ Cân Bằng Nội Tiết Tố, Làm Đẹp Da, Tóc, Móng Tinh Dầu Hoa Anh Thảo Evening Primrose Oil 190 viên</t>
+  </si>
+  <si>
+    <t>Viên Hỗ Trợ Cân Bằng Nội Tiết Tố, Làm Đẹp Da, Tóc, Móng Tinh Dầu Hoa Anh Thảo Blackmores Evening Primrose Oil là thực phẩm chức năng hỗ trợ cân bằng nội tiết tố và làm đẹp thuộc thương hiệu Blackmores nhãn hiệu đến từ Úc. Sản phẩm mang lại cân bằng nội tiết tố cho phụ nữ trong thời kỳ kinh nguyệt, tiền mãn kinh và mãn kinh. Đồng thời, cải thiện tình trạng huyết áp cao, phòng ngừa các bệnh về tim mạch, cải thiện viêm khớp, cải thiện các chứng thấp khớp, hỗ trợ bệnh tiểu đường.Hỗ trợ sức khỏe tiền kinh nguyệt và phụ nữ mãn kinh: Chứa thành phần axit gamma-linolenic (GLA) 100mg, một axit béo thiết yếu giúp hỗ trợ phụ nữ gặp vấn đề trong thời kỳ tiền kinh nguyệt. Tinh dầu hoa anh thảo cung cấp omega-6 và GLA, hỗ trợ da dị ứng, cải thiện tình trạng da bong vảy, khô, đỏ, ngứa. Cân bằng nội tiết tố, giảm triệu chứng khó chịu: Tinh dầu giúp cân bằng hormone, giảm đầy hơi, đau ngực, thay đổi tâm trạng và lo lắng trong thời kỳ tiền kinh nguyệt, cũng như hỗ trợ phụ nữ ở giai đoạn tiền mãn kinh và mãn kinh. Tăng cường đàn hồi da và sức khỏe tóc: Kích thích sản sinh collagen, giúp da tăng độ đàn hồi, giảm nếp nhăn, đồng thời nuôi dưỡng tóc mềm mại, bóng mượt, ngăn rụng tóc, giảm khô môi và giúp móng chắc khỏe. Giảm mụn và cải thiện da: Tinh dầu hoa anh thảo giúp giảm mụn trứng cá và cải thiện tình trạng da mụn, mang lại làn da mịn màng và khỏe mạnh hơn. Hỗ trợ sức khỏe tim mạch: Tinh dầu giúp cải thiện huyết áp cao và cholesterol cao, góp phần phòng ngừa các bệnh về tim mạch. Cải thiện viêm khớp: Giảm viêm và hỗ trợ các triệu chứng của bệnh thấp khớp, giúp khớp hoạt động linh hoạt hơn. Hỗ trợ chuyển hóa cho người tiểu đường: Tinh dầu giúp giảm lượng Insulin và hỗ trợ quá trình chuyển hóa chất béo, phòng ngừa và cải thiện tình trạng tiểu đường. Sản phẩm an toàn, không chứa thành phần gây hại: Không chứa men, gluten, lúa mì, các dẫn xuất sữa, chất bảo quản, màu sắc nhân tạo, hương vị hoặc chất tạo ngọt, an toàn cho người sử dụng. Viên nang mềm, dễ hấp thụ: Dạng viên nang mềm giúp sản phẩm thẩm thấu nhanh vào cơ thể, dễ sử dụng và mang lại hiệu quả cao. [190 Viên/Lọ] Viên Uống Blackmores Hỗ Trợ Cân Bằng Nội Tiết Tố, Làm Đẹp Da, Tóc, Móng Tinh Dầu Hoa Anh Thảo Evening Primrose Oil</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355306/z7031254636501_197854906ae1006c3d8d93dca86e6b1b_g7do6e.jpg</t>
+  </si>
+  <si>
+    <t>Huyết Thanh Loreal Revitalift Laser X3 Serum Chống Lão Hoá, 30 ml</t>
+  </si>
+  <si>
+    <t>Để làn da luôn trẻ trung và rạng rỡ, huyết thanh Loreal Revitalift Laser X3 Serum 30ml, sản phẩm chính hãng nội địa Đức, là giải pháp chống lão hóa tiên tiến từ thương hiệu Loreal Paris. Với công thức chứa axit hyaluronic, Pro-Xylane 3%, Ceramide Pro và LHA, sản phẩm giúp giảm nếp nhăn, săn chắc da và cải thiện cấu trúc da rõ rệt. Phù hợp cho da từ 40 tuổi trở lên, kể cả da nhạy cảm, huyết thanh này mang lại hiệu quả tương tự liệu trình laser da liễu, giúp bạn tự tin với làn da mịn màng, đều màu.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355306/z7031254654241_1f38b5eff5da073831c2f6717cfb6ee3_vmxnfz.jpg</t>
+  </si>
+  <si>
+    <t>Tinh Chất Nhân Sâm Cô Đặc Dưỡng Da Săn Chắc - Sulwhasoo Concentrated Ginseng Rejuvenating Serum 50ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serum nhân sâm tái tạo da giúp ngừa lão hóa, làm săn chắc, nâng cơ da mặt và làm đều màu da &amp; kết cấu .  Làn da được tái sinh, săn chắc từ sâu bên trong chỉ sau 7 ngày sử dụng nhờ Hiệu ứng đàn hồi da gấp 3 lần gồm Tăng mật độ da, Củng cố kết cấu da và Tăng cường hàng rào bảo về da. Hợp chất chống lão hóa đỉnh cao GINSENOMICS™ giúp tăng cường khả năng tái tạo, giúp da đàn hồi và săn chắc nhanh gấp 8 lần, đẩy lùi các dấu hiệu lão hóa. Serum dưỡng da tinh chất nhân sâm nhà Sulwhasoo mang mùi hương nhân sâm nhẹ nhàng tạo cảm giác thư giãn khi sử dụng. Các viên nang siêu nhỏ cung cấp dưỡng chất giúp thẩm thấu nhanh, bám tốt trên da và không gây bết dính</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355306/z7031254666223_b9971c4f361cdca4989607d36bf74804_lht4t1.jpg</t>
+  </si>
+  <si>
+    <t>Gel rửa mặt tẩy da chết, chống lão hoá chứa Enzym - Obagi Clinical Kinetin+ Exfoliating Cleansing Gel 150ml</t>
+  </si>
+  <si>
+    <t>Gel rửa mặt tẩy tế bào chết Obagi đem lại tác động 3 trong 1: đảm bảo làm sạch da một cách nhẹ nhàng, lấy đi da chết và cặn bẩn để ngăn ngừa mụn mà vẫn dịu dàng với làn da, duy trì độ ẩm và một làn da mềm mịn sau khi rửa mặt.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355307/z7031254641578_1f1fd77c3b1887f04b527bd69f10bf94_ioaldn.jpg</t>
+  </si>
+  <si>
+    <t>Serum Giảm Chảy Sệ, Trẻ Hóa Da DBH Hydra-Lift 113ml</t>
+  </si>
+  <si>
+    <t>Serum Giảm Chảy Sệ, Trẻ Hóa Da DBH Hydra-Lift 113ml được nghiên cứu, phát triển bởi các chuyên gia DBH và ứng dụng công nghệ hiện đại từ Hoa Kỳ là sản phẩm chăm sóc da cho những người hay trang điểm. Sử dụng sản phẩm kèm máy phun sương DX Micro Mist làm dưỡng chất thấm nhanh vào da, kể cả khi trên mặt bạn đang có lớp trang điểm dày. Sản phẩm hỗ trợ làm căng da mặt, làm săn chắc da và giảm các dấu hiệu tuổi tác.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355307/z7031254645991_9d63caee5874ab3f3b146c8bf3da99e4_f3xexl.jpg</t>
+  </si>
+  <si>
+    <t>Serum dưỡng trắng da GiGi Ester C 120ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serum dưỡng trắng da GiGi Ester C:  Serum dưỡng ẩm làm sáng da với nồng độ tối đa Vitamin C là chất chống oxy hóa mạnh, thúc đẩy quá trình hình thành các sợi collagen, giảm nếp nhăn do khô da hoặc ảnh hưởng có hại từ môi trường. Chống lại hiệu quả tất cả các thay đổi liên quan đến tuổi tác trên khuôn mặt và da - đốm, nếp nhăn và các dấu hiệu lão hóa khác, được hấp thụ ngay lập tức mà không để lại dư lượng nhờn. Nhất là dùng sau Peel GiGi Ester C da sáng bóng không lỗ chân lông luôn nha. Thêm một lưu ý nữa là con này nồng độ hoạt chất cao vào ngon hơn con cream đêm khả năng làm sáng da cũng tốt hơn rất nhiều. Thành phần hoạt tính:Magnesium Ascorbyl - ngăn chặn sự hình thành hắc tố, thúc đẩy tổng hợp collagen, ngăn ngừa khô da, axit hyaluronic, vitamin E, Menthyl Lactate - dẫn xuất axit lactic, Xanthan gum, </t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355307/z7031254669935_0f3da84a8b202faf4d894ea905acb1fe_oci6jm.jpg</t>
+  </si>
+  <si>
+    <t>Gel làm dịu và phục hồi của DBH 113g</t>
+  </si>
+  <si>
+    <t>Việc sử dụng axit là để phá vỡ lớp da bên ngoài, cho phép da bong tróc. Gel làm dịu kích hoạt có thể được sử dụng trên mọi loại da và có thể được sử dụng như mặt nạ gel chỉ sau một lần thoa. Giống như nhiều sản phẩm tẩy tế bào chết khác, chúng có thể gây kích ứng và khó chịu. Việc làm dịu da và tình trạng đỏ da không mong muốn có thể là một thách thức. Chúng tôi cố gắng giảm thiểu vấn đề này bằng cách ức chế INOS của mRNA, giải phóng cytokine và giải phóng histamine.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355309/z7031254670215_6e2f9b9419e09f790a7816f09345dd55_n2jsrb.jpg</t>
+  </si>
+  <si>
+    <t>Gel Dưỡng Đánh Thức Sức Sống, Thanh Lọc &amp; Cân Bằng Cho Da Hỗn Hợp/Dầu</t>
+  </si>
+  <si>
+    <t>ERICSON ANTI-ASPHYXIATION TONING GEL là sản phẩm dạng gel mỏng nhẹ, được bào chế đặc biệt để đem lại sức sống và loại bỏ dấu hiệu mệt mỏi cho làn da. Với công thức tiên tiến, sản phẩm này lý tưởng cho làn da hỗn hợp, da dầu hoặc da đang gặp vấn đề về mụn. Gel cung cấp khả năng bảo vệ toàn diện chống lại tác hại của ánh sáng xanh và ô nhiễm môi trường, đồng thời kích thích cơ chế bảo vệ tự nhiên của tế bào da. Các chiết xuất từ gừng, nhân sâm và Zinc PCA giúp hỗ trợ kiểm soát bã nhờn, góp phần ngăn ngừa mụn, mang lại làn da đàn hồi, tươi mới và duy trì độ ẩm cần thiết.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/deoknys7k/image/upload/v1758355309/z7031254673631_bf3716d38ac80ecfbf291f7acc6c87bc_doquk2.jpg</t>
+  </si>
 </sst>
 </file>
 
@@ -1111,7 +1834,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,6 +1893,109 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF272727"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A1A1C"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF313131"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4978BA"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF27272A"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3A445E"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1B2838"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202020"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF525252"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1669,137 +2495,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1846,6 +2672,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2387,10 +3276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L103"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:L180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2398,7 +3287,7 @@
     <col min="1" max="1" width="57.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="17.55" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2436,7 +3325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" ht="17.55" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2474,7 +3363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" ht="17.55" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2512,7 +3401,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="17.55" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2550,7 +3439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" ht="17.55" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2588,7 +3477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" ht="17.55" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2626,7 +3515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" ht="17.55" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2664,7 +3553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" ht="17.55" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2702,7 +3591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" ht="17.55" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2740,7 +3629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" ht="17.55" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -2778,7 +3667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" ht="17.55" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2816,7 +3705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" ht="17.55" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2854,7 +3743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" ht="17.55" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2892,7 +3781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" ht="17.55" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2930,7 +3819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" ht="17.55" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -2968,7 +3857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" ht="17.55" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3006,7 +3895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" ht="17.55" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -3044,7 +3933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" ht="17.55" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -3082,7 +3971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" ht="17.55" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -3120,7 +4009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" ht="17.55" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
@@ -3158,7 +4047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" ht="17.55" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -3196,7 +4085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" ht="17.55" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
@@ -3234,7 +4123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" ht="17.55" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -3272,7 +4161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" ht="17.55" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,7 +4199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" ht="17.55" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -3348,7 +4237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" ht="17.55" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -3386,7 +4275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" ht="17.55" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>96</v>
       </c>
@@ -3424,7 +4313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" ht="17.55" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
@@ -3462,7 +4351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" ht="17.55" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>100</v>
       </c>
@@ -3500,7 +4389,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" ht="17.55" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>103</v>
       </c>
@@ -3538,7 +4427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" ht="17.55" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
@@ -3576,7 +4465,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" ht="17.55" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>108</v>
       </c>
@@ -3614,7 +4503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" ht="17.55" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
@@ -3652,7 +4541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" ht="17.55" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>114</v>
       </c>
@@ -3690,7 +4579,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" ht="17.55" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -3728,7 +4617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" ht="17.55" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>120</v>
       </c>
@@ -3766,7 +4655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" ht="17.55" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>123</v>
       </c>
@@ -3804,7 +4693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" ht="17.55" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>126</v>
       </c>
@@ -3842,7 +4731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" ht="17.55" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>129</v>
       </c>
@@ -3880,7 +4769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" ht="17.55" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>132</v>
       </c>
@@ -3918,7 +4807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" ht="17.55" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>136</v>
       </c>
@@ -3956,7 +4845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" ht="17.55" spans="1:12">
       <c r="A42" s="9" t="s">
         <v>139</v>
       </c>
@@ -3994,7 +4883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" ht="17.55" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
@@ -4032,7 +4921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" ht="17.55" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>145</v>
       </c>
@@ -4070,7 +4959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" ht="17.55" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>148</v>
       </c>
@@ -4108,7 +4997,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" ht="17.55" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>151</v>
       </c>
@@ -4146,7 +5035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" ht="17.55" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>154</v>
       </c>
@@ -4184,7 +5073,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" ht="17.55" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>157</v>
       </c>
@@ -4222,7 +5111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" ht="17.55" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -4260,7 +5149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" ht="17.55" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>163</v>
       </c>
@@ -4298,7 +5187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" ht="17.55" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>166</v>
       </c>
@@ -4336,7 +5225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" ht="17.55" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>169</v>
       </c>
@@ -4374,7 +5263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" ht="17.55" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>172</v>
       </c>
@@ -4412,7 +5301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" ht="17.55" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>175</v>
       </c>
@@ -4450,7 +5339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" ht="17.55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>178</v>
       </c>
@@ -4488,7 +5377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" ht="17.55" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>181</v>
       </c>
@@ -4526,7 +5415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" ht="17.55" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>184</v>
       </c>
@@ -4564,7 +5453,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" ht="17.55" spans="1:12">
       <c r="A58" s="10" t="s">
         <v>187</v>
       </c>
@@ -4600,7 +5489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" ht="17.55" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>189</v>
       </c>
@@ -4638,7 +5527,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" ht="17.55" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>192</v>
       </c>
@@ -4676,7 +5565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" ht="17.55" spans="1:12">
       <c r="A61" s="11" t="s">
         <v>195</v>
       </c>
@@ -4714,7 +5603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" ht="17.55" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>198</v>
       </c>
@@ -4752,7 +5641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" ht="17.55" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>201</v>
       </c>
@@ -4790,7 +5679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" ht="17.55" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
@@ -4828,7 +5717,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" ht="17.55" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>208</v>
       </c>
@@ -4866,7 +5755,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" ht="17.55" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>211</v>
       </c>
@@ -4904,7 +5793,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" ht="17.55" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>214</v>
       </c>
@@ -4942,7 +5831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" ht="17.55" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>217</v>
       </c>
@@ -4980,7 +5869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" ht="17.55" spans="1:12">
       <c r="A69" s="11" t="s">
         <v>220</v>
       </c>
@@ -5018,7 +5907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" ht="17.55" spans="1:12">
       <c r="A70" s="11" t="s">
         <v>223</v>
       </c>
@@ -5056,7 +5945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" ht="17.55" spans="1:12">
       <c r="A71" s="11" t="s">
         <v>226</v>
       </c>
@@ -5094,7 +5983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" ht="17.55" spans="1:12">
       <c r="A72" s="11" t="s">
         <v>228</v>
       </c>
@@ -5132,7 +6021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" ht="17.55" spans="1:12">
       <c r="A73" s="11" t="s">
         <v>230</v>
       </c>
@@ -5170,7 +6059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" ht="17.55" spans="1:12">
       <c r="A74" s="11" t="s">
         <v>233</v>
       </c>
@@ -5208,7 +6097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" ht="17.55" spans="1:12">
       <c r="A75" s="11" t="s">
         <v>236</v>
       </c>
@@ -5246,7 +6135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" ht="17.55" spans="1:12">
       <c r="A76" s="11" t="s">
         <v>239</v>
       </c>
@@ -5284,7 +6173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" ht="17.55" spans="1:12">
       <c r="A77" s="11" t="s">
         <v>242</v>
       </c>
@@ -5322,7 +6211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" ht="17.55" spans="1:12">
       <c r="A78" s="11" t="s">
         <v>245</v>
       </c>
@@ -5360,7 +6249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" ht="17.55" spans="1:12">
       <c r="A79" s="11" t="s">
         <v>248</v>
       </c>
@@ -5398,7 +6287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" ht="17.55" spans="1:12">
       <c r="A80" s="11" t="s">
         <v>251</v>
       </c>
@@ -5436,7 +6325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" ht="17.55" spans="1:12">
       <c r="A81" s="11" t="s">
         <v>254</v>
       </c>
@@ -5474,7 +6363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" ht="17.55" spans="1:12">
       <c r="A82" s="11" t="s">
         <v>257</v>
       </c>
@@ -5512,7 +6401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" ht="17.55" spans="1:12">
       <c r="A83" s="11" t="s">
         <v>260</v>
       </c>
@@ -5550,7 +6439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" ht="17.55" spans="1:12">
       <c r="A84" s="11" t="s">
         <v>263</v>
       </c>
@@ -5588,7 +6477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" ht="17.55" spans="1:12">
       <c r="A85" s="11" t="s">
         <v>266</v>
       </c>
@@ -5626,7 +6515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" ht="17.55" spans="1:12">
       <c r="A86" s="11" t="s">
         <v>269</v>
       </c>
@@ -5664,7 +6553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" ht="17.55" spans="1:12">
       <c r="A87" s="11" t="s">
         <v>272</v>
       </c>
@@ -5702,7 +6591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" ht="17.55" spans="1:12">
       <c r="A88" s="11" t="s">
         <v>275</v>
       </c>
@@ -5740,7 +6629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" ht="17.55" spans="1:12">
       <c r="A89" s="11" t="s">
         <v>278</v>
       </c>
@@ -5778,7 +6667,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" ht="17.55" spans="1:12">
       <c r="A90" s="11" t="s">
         <v>281</v>
       </c>
@@ -5816,7 +6705,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" ht="17.55" spans="1:12">
       <c r="A91" s="11" t="s">
         <v>284</v>
       </c>
@@ -5854,7 +6743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" ht="17.55" spans="1:12">
       <c r="A92" s="11" t="s">
         <v>287</v>
       </c>
@@ -5892,7 +6781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" ht="17.55" spans="1:12">
       <c r="A93" s="11" t="s">
         <v>290</v>
       </c>
@@ -5930,7 +6819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" ht="17.55" spans="1:12">
       <c r="A94" s="13" t="s">
         <v>293</v>
       </c>
@@ -5968,7 +6857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" ht="17.55" spans="1:12">
       <c r="A95" s="15" t="s">
         <v>296</v>
       </c>
@@ -6004,7 +6893,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" ht="17.55" spans="1:12">
       <c r="A96" s="11" t="s">
         <v>298</v>
       </c>
@@ -6042,7 +6931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" ht="17.55" spans="1:12">
       <c r="A97" s="11" t="s">
         <v>301</v>
       </c>
@@ -6080,7 +6969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" ht="17.55" spans="1:12">
       <c r="A98" s="11" t="s">
         <v>304</v>
       </c>
@@ -6118,7 +7007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" ht="17.55" spans="1:12">
       <c r="A99" s="16" t="s">
         <v>307</v>
       </c>
@@ -6156,7 +7045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" ht="17.55" spans="1:12">
       <c r="A100" s="11" t="s">
         <v>310</v>
       </c>
@@ -6194,7 +7083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" ht="17.55" spans="1:12">
       <c r="A101" s="11" t="s">
         <v>313</v>
       </c>
@@ -6232,7 +7121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" ht="17.55" spans="1:12">
       <c r="A102" s="11" t="s">
         <v>316</v>
       </c>
@@ -6270,7 +7159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" ht="17.55" spans="1:12">
       <c r="A103" s="11" t="s">
         <v>319</v>
       </c>
@@ -6306,6 +7195,2930 @@
       </c>
       <c r="L103" s="11" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D104" s="19">
+        <v>39</v>
+      </c>
+      <c r="E104" s="19">
+        <v>9</v>
+      </c>
+      <c r="F104" s="19">
+        <v>1</v>
+      </c>
+      <c r="G104" s="19">
+        <v>2</v>
+      </c>
+      <c r="H104" s="19">
+        <v>5</v>
+      </c>
+      <c r="I104" s="19">
+        <v>320</v>
+      </c>
+      <c r="J104" s="19">
+        <v>2310</v>
+      </c>
+      <c r="K104" s="19">
+        <v>480</v>
+      </c>
+      <c r="L104" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D105" s="22">
+        <v>67</v>
+      </c>
+      <c r="E105" s="22">
+        <v>2</v>
+      </c>
+      <c r="F105" s="22">
+        <v>1</v>
+      </c>
+      <c r="G105" s="22">
+        <v>2</v>
+      </c>
+      <c r="H105" s="22">
+        <v>5</v>
+      </c>
+      <c r="I105" s="22">
+        <v>100</v>
+      </c>
+      <c r="J105" s="22">
+        <v>1200</v>
+      </c>
+      <c r="K105" s="22">
+        <v>190</v>
+      </c>
+      <c r="L105" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D106" s="22">
+        <v>131</v>
+      </c>
+      <c r="E106" s="22">
+        <v>7</v>
+      </c>
+      <c r="F106" s="22">
+        <v>1</v>
+      </c>
+      <c r="G106" s="22">
+        <v>4</v>
+      </c>
+      <c r="H106" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I106" s="22">
+        <v>100</v>
+      </c>
+      <c r="J106" s="22">
+        <v>950</v>
+      </c>
+      <c r="K106" s="22">
+        <v>210</v>
+      </c>
+      <c r="L106" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D107" s="22">
+        <v>78</v>
+      </c>
+      <c r="E107" s="22">
+        <v>3</v>
+      </c>
+      <c r="F107" s="22">
+        <v>12</v>
+      </c>
+      <c r="G107" s="22">
+        <v>20</v>
+      </c>
+      <c r="H107" s="22">
+        <v>4.9</v>
+      </c>
+      <c r="I107" s="22">
+        <v>79</v>
+      </c>
+      <c r="J107" s="22">
+        <v>550</v>
+      </c>
+      <c r="K107" s="22">
+        <v>99</v>
+      </c>
+      <c r="L107" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D108" s="22">
+        <v>123</v>
+      </c>
+      <c r="E108" s="22">
+        <v>2</v>
+      </c>
+      <c r="F108" s="22">
+        <v>1</v>
+      </c>
+      <c r="G108" s="22">
+        <v>1</v>
+      </c>
+      <c r="H108" s="22">
+        <v>5</v>
+      </c>
+      <c r="I108" s="22">
+        <v>290</v>
+      </c>
+      <c r="J108" s="22">
+        <v>2650</v>
+      </c>
+      <c r="K108" s="22">
+        <v>510</v>
+      </c>
+      <c r="L108" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D109" s="22">
+        <v>133</v>
+      </c>
+      <c r="E109" s="22">
+        <v>2</v>
+      </c>
+      <c r="F109" s="22">
+        <v>1</v>
+      </c>
+      <c r="G109" s="22">
+        <v>2</v>
+      </c>
+      <c r="H109" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I109" s="22">
+        <v>50</v>
+      </c>
+      <c r="J109" s="22">
+        <v>1100</v>
+      </c>
+      <c r="K109" s="22">
+        <v>190</v>
+      </c>
+      <c r="L109" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D110" s="22">
+        <v>134</v>
+      </c>
+      <c r="E110" s="22">
+        <v>13</v>
+      </c>
+      <c r="F110" s="22">
+        <v>1</v>
+      </c>
+      <c r="G110" s="22">
+        <v>1</v>
+      </c>
+      <c r="H110" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I110" s="22">
+        <v>60</v>
+      </c>
+      <c r="J110" s="22">
+        <v>265</v>
+      </c>
+      <c r="K110" s="22">
+        <v>140</v>
+      </c>
+      <c r="L110" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D111" s="22">
+        <v>30</v>
+      </c>
+      <c r="E111" s="22">
+        <v>7</v>
+      </c>
+      <c r="F111" s="22">
+        <v>1</v>
+      </c>
+      <c r="G111" s="22">
+        <v>2</v>
+      </c>
+      <c r="H111" s="22">
+        <v>4.6</v>
+      </c>
+      <c r="I111" s="22">
+        <v>190</v>
+      </c>
+      <c r="J111" s="22">
+        <v>1580</v>
+      </c>
+      <c r="K111" s="22">
+        <v>390</v>
+      </c>
+      <c r="L111" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D112" s="22">
+        <v>39</v>
+      </c>
+      <c r="E112" s="22">
+        <v>9</v>
+      </c>
+      <c r="F112" s="22">
+        <v>1</v>
+      </c>
+      <c r="G112" s="22">
+        <v>4</v>
+      </c>
+      <c r="H112" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I112" s="22">
+        <v>260</v>
+      </c>
+      <c r="J112" s="22">
+        <v>3850</v>
+      </c>
+      <c r="K112" s="22">
+        <v>620</v>
+      </c>
+      <c r="L112" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D113" s="22">
+        <v>112</v>
+      </c>
+      <c r="E113" s="22">
+        <v>9</v>
+      </c>
+      <c r="F113" s="22">
+        <v>2</v>
+      </c>
+      <c r="G113" s="22">
+        <v>2</v>
+      </c>
+      <c r="H113" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I113" s="22">
+        <v>250</v>
+      </c>
+      <c r="J113" s="22">
+        <v>1550</v>
+      </c>
+      <c r="K113" s="22">
+        <v>480</v>
+      </c>
+      <c r="L113" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="D114" s="22">
+        <v>8</v>
+      </c>
+      <c r="E114" s="22">
+        <v>9</v>
+      </c>
+      <c r="F114" s="22">
+        <v>1</v>
+      </c>
+      <c r="G114" s="22">
+        <v>2</v>
+      </c>
+      <c r="H114" s="22">
+        <v>5</v>
+      </c>
+      <c r="I114" s="22">
+        <v>220</v>
+      </c>
+      <c r="J114" s="22">
+        <v>2340</v>
+      </c>
+      <c r="K114" s="22">
+        <v>550</v>
+      </c>
+      <c r="L114" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115" s="22">
+        <v>115</v>
+      </c>
+      <c r="E115" s="22">
+        <v>2</v>
+      </c>
+      <c r="F115" s="22">
+        <v>1</v>
+      </c>
+      <c r="G115" s="22">
+        <v>1</v>
+      </c>
+      <c r="H115" s="22">
+        <v>5</v>
+      </c>
+      <c r="I115" s="22">
+        <v>90</v>
+      </c>
+      <c r="J115" s="22">
+        <v>495</v>
+      </c>
+      <c r="K115" s="22">
+        <v>180</v>
+      </c>
+      <c r="L115" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D116" s="22">
+        <v>123</v>
+      </c>
+      <c r="E116" s="22">
+        <v>2</v>
+      </c>
+      <c r="F116" s="22">
+        <v>1</v>
+      </c>
+      <c r="G116" s="22">
+        <v>2</v>
+      </c>
+      <c r="H116" s="22">
+        <v>5</v>
+      </c>
+      <c r="I116" s="22">
+        <v>320</v>
+      </c>
+      <c r="J116" s="22">
+        <v>2150</v>
+      </c>
+      <c r="K116" s="22">
+        <v>550</v>
+      </c>
+      <c r="L116" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D117" s="22">
+        <v>8</v>
+      </c>
+      <c r="E117" s="22">
+        <v>4</v>
+      </c>
+      <c r="F117" s="22">
+        <v>5</v>
+      </c>
+      <c r="G117" s="22">
+        <v>8</v>
+      </c>
+      <c r="H117" s="22">
+        <v>5</v>
+      </c>
+      <c r="I117" s="22">
+        <v>80</v>
+      </c>
+      <c r="J117" s="22">
+        <v>625</v>
+      </c>
+      <c r="K117" s="22">
+        <v>190</v>
+      </c>
+      <c r="L117" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="D118" s="22">
+        <v>45</v>
+      </c>
+      <c r="E118" s="22">
+        <v>2</v>
+      </c>
+      <c r="F118" s="22">
+        <v>1</v>
+      </c>
+      <c r="G118" s="22">
+        <v>2</v>
+      </c>
+      <c r="H118" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I118" s="22">
+        <v>90</v>
+      </c>
+      <c r="J118" s="22">
+        <v>429</v>
+      </c>
+      <c r="K118" s="22">
+        <v>180</v>
+      </c>
+      <c r="L118" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D119" s="22">
+        <v>135</v>
+      </c>
+      <c r="E119" s="22">
+        <v>4</v>
+      </c>
+      <c r="F119" s="22">
+        <v>1</v>
+      </c>
+      <c r="G119" s="22">
+        <v>6</v>
+      </c>
+      <c r="H119" s="22">
+        <v>5</v>
+      </c>
+      <c r="I119" s="22">
+        <v>350</v>
+      </c>
+      <c r="J119" s="22">
+        <v>3500</v>
+      </c>
+      <c r="K119" s="22">
+        <v>850</v>
+      </c>
+      <c r="L119" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="D120" s="22">
+        <v>136</v>
+      </c>
+      <c r="E120" s="22">
+        <v>2</v>
+      </c>
+      <c r="F120" s="22">
+        <v>1</v>
+      </c>
+      <c r="G120" s="22">
+        <v>2</v>
+      </c>
+      <c r="H120" s="22">
+        <v>4.6</v>
+      </c>
+      <c r="I120" s="22">
+        <v>100</v>
+      </c>
+      <c r="J120" s="22">
+        <v>395</v>
+      </c>
+      <c r="K120" s="22">
+        <v>160</v>
+      </c>
+      <c r="L120" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D121" s="22">
+        <v>137</v>
+      </c>
+      <c r="E121" s="22">
+        <v>2</v>
+      </c>
+      <c r="F121" s="22">
+        <v>1</v>
+      </c>
+      <c r="G121" s="22">
+        <v>10</v>
+      </c>
+      <c r="H121" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I121" s="22">
+        <v>60</v>
+      </c>
+      <c r="J121" s="22">
+        <v>570</v>
+      </c>
+      <c r="K121" s="22">
+        <v>180</v>
+      </c>
+      <c r="L121" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="D122" s="22">
+        <v>138</v>
+      </c>
+      <c r="E122" s="22">
+        <v>7</v>
+      </c>
+      <c r="F122" s="22">
+        <v>1</v>
+      </c>
+      <c r="G122" s="22">
+        <v>6</v>
+      </c>
+      <c r="H122" s="22">
+        <v>4.9</v>
+      </c>
+      <c r="I122" s="22">
+        <v>220</v>
+      </c>
+      <c r="J122" s="22">
+        <v>2950</v>
+      </c>
+      <c r="K122" s="22">
+        <v>490</v>
+      </c>
+      <c r="L122" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D123" s="22">
+        <v>1</v>
+      </c>
+      <c r="E123" s="22">
+        <v>9</v>
+      </c>
+      <c r="F123" s="22">
+        <v>2</v>
+      </c>
+      <c r="G123" s="22">
+        <v>6</v>
+      </c>
+      <c r="H123" s="22">
+        <v>5</v>
+      </c>
+      <c r="I123" s="22">
+        <v>120</v>
+      </c>
+      <c r="J123" s="22">
+        <v>700</v>
+      </c>
+      <c r="K123" s="22">
+        <v>195</v>
+      </c>
+      <c r="L123" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="D124" s="22">
+        <v>139</v>
+      </c>
+      <c r="E124" s="22">
+        <v>9</v>
+      </c>
+      <c r="F124" s="22">
+        <v>3</v>
+      </c>
+      <c r="G124" s="22">
+        <v>3</v>
+      </c>
+      <c r="H124" s="22">
+        <v>5</v>
+      </c>
+      <c r="I124" s="22">
+        <v>190</v>
+      </c>
+      <c r="J124" s="22">
+        <v>2250</v>
+      </c>
+      <c r="K124" s="22">
+        <v>420</v>
+      </c>
+      <c r="L124" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D125" s="22">
+        <v>139</v>
+      </c>
+      <c r="E125" s="22">
+        <v>9</v>
+      </c>
+      <c r="F125" s="22">
+        <v>2</v>
+      </c>
+      <c r="G125" s="22">
+        <v>4</v>
+      </c>
+      <c r="H125" s="22">
+        <v>5</v>
+      </c>
+      <c r="I125" s="22">
+        <v>200</v>
+      </c>
+      <c r="J125" s="22">
+        <v>2320</v>
+      </c>
+      <c r="K125" s="22">
+        <v>450</v>
+      </c>
+      <c r="L125" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D126" s="22">
+        <v>38</v>
+      </c>
+      <c r="E126" s="22">
+        <v>9</v>
+      </c>
+      <c r="F126" s="22">
+        <v>50</v>
+      </c>
+      <c r="G126" s="22">
+        <v>120</v>
+      </c>
+      <c r="H126" s="22">
+        <v>4.3</v>
+      </c>
+      <c r="I126" s="22">
+        <v>9</v>
+      </c>
+      <c r="J126" s="22">
+        <v>180</v>
+      </c>
+      <c r="K126" s="22">
+        <v>22</v>
+      </c>
+      <c r="L126" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D127" s="22">
+        <v>140</v>
+      </c>
+      <c r="E127" s="22">
+        <v>2</v>
+      </c>
+      <c r="F127" s="22">
+        <v>4</v>
+      </c>
+      <c r="G127" s="22">
+        <v>6</v>
+      </c>
+      <c r="H127" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I127" s="22">
+        <v>80</v>
+      </c>
+      <c r="J127" s="22">
+        <v>1320</v>
+      </c>
+      <c r="K127" s="22">
+        <v>210</v>
+      </c>
+      <c r="L127" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="D128" s="22">
+        <v>37</v>
+      </c>
+      <c r="E128" s="22">
+        <v>6</v>
+      </c>
+      <c r="F128" s="22">
+        <v>2</v>
+      </c>
+      <c r="G128" s="22">
+        <v>4</v>
+      </c>
+      <c r="H128" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I128" s="22">
+        <v>180</v>
+      </c>
+      <c r="J128" s="22">
+        <v>1200</v>
+      </c>
+      <c r="K128" s="22">
+        <v>220</v>
+      </c>
+      <c r="L128" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="D129" s="22">
+        <v>141</v>
+      </c>
+      <c r="E129" s="22">
+        <v>10</v>
+      </c>
+      <c r="F129" s="22">
+        <v>1</v>
+      </c>
+      <c r="G129" s="22">
+        <v>2</v>
+      </c>
+      <c r="H129" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I129" s="22">
+        <v>100</v>
+      </c>
+      <c r="J129" s="22">
+        <v>900</v>
+      </c>
+      <c r="K129" s="22">
+        <v>200</v>
+      </c>
+      <c r="L129" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="D130" s="22">
+        <v>5</v>
+      </c>
+      <c r="E130" s="22">
+        <v>10</v>
+      </c>
+      <c r="F130" s="22">
+        <v>2</v>
+      </c>
+      <c r="G130" s="22">
+        <v>24</v>
+      </c>
+      <c r="H130" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I130" s="22">
+        <v>190</v>
+      </c>
+      <c r="J130" s="22">
+        <v>950</v>
+      </c>
+      <c r="K130" s="22">
+        <v>320</v>
+      </c>
+      <c r="L130" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D131" s="22">
+        <v>2</v>
+      </c>
+      <c r="E131" s="22">
+        <v>16</v>
+      </c>
+      <c r="F131" s="22">
+        <v>5</v>
+      </c>
+      <c r="G131" s="22">
+        <v>10</v>
+      </c>
+      <c r="H131" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I131" s="22">
+        <v>90</v>
+      </c>
+      <c r="J131" s="22">
+        <v>450</v>
+      </c>
+      <c r="K131" s="22">
+        <v>190</v>
+      </c>
+      <c r="L131" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D132" s="22">
+        <v>1</v>
+      </c>
+      <c r="E132" s="22">
+        <v>5</v>
+      </c>
+      <c r="F132" s="22">
+        <v>1</v>
+      </c>
+      <c r="G132" s="22">
+        <v>2</v>
+      </c>
+      <c r="H132" s="22">
+        <v>4.6</v>
+      </c>
+      <c r="I132" s="22">
+        <v>120</v>
+      </c>
+      <c r="J132" s="22">
+        <v>1450</v>
+      </c>
+      <c r="K132" s="22">
+        <v>350</v>
+      </c>
+      <c r="L132" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D133" s="22">
+        <v>104</v>
+      </c>
+      <c r="E133" s="22">
+        <v>6</v>
+      </c>
+      <c r="F133" s="22">
+        <v>1</v>
+      </c>
+      <c r="G133" s="22">
+        <v>6</v>
+      </c>
+      <c r="H133" s="22">
+        <v>5</v>
+      </c>
+      <c r="I133" s="22">
+        <v>300</v>
+      </c>
+      <c r="J133" s="22">
+        <v>3150</v>
+      </c>
+      <c r="K133" s="22">
+        <v>650</v>
+      </c>
+      <c r="L133" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="D134" s="22">
+        <v>138</v>
+      </c>
+      <c r="E134" s="22">
+        <v>7</v>
+      </c>
+      <c r="F134" s="22">
+        <v>4</v>
+      </c>
+      <c r="G134" s="22">
+        <v>6</v>
+      </c>
+      <c r="H134" s="22">
+        <v>4.4</v>
+      </c>
+      <c r="I134" s="22">
+        <v>85</v>
+      </c>
+      <c r="J134" s="22">
+        <v>700</v>
+      </c>
+      <c r="K134" s="22">
+        <v>210</v>
+      </c>
+      <c r="L134" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="D135" s="22">
+        <v>1</v>
+      </c>
+      <c r="E135" s="22">
+        <v>2</v>
+      </c>
+      <c r="F135" s="22">
+        <v>40</v>
+      </c>
+      <c r="G135" s="22">
+        <v>50</v>
+      </c>
+      <c r="H135" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I135" s="22">
+        <v>40</v>
+      </c>
+      <c r="J135" s="22">
+        <v>180</v>
+      </c>
+      <c r="K135" s="22">
+        <v>69</v>
+      </c>
+      <c r="L135" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D136" s="22">
+        <v>1</v>
+      </c>
+      <c r="E136" s="22">
+        <v>2</v>
+      </c>
+      <c r="F136" s="22">
+        <v>20</v>
+      </c>
+      <c r="G136" s="22">
+        <v>50</v>
+      </c>
+      <c r="H136" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I136" s="22">
+        <v>120</v>
+      </c>
+      <c r="J136" s="22">
+        <v>600</v>
+      </c>
+      <c r="K136" s="22">
+        <v>180</v>
+      </c>
+      <c r="L136" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="D137" s="22">
+        <v>51</v>
+      </c>
+      <c r="E137" s="22">
+        <v>12</v>
+      </c>
+      <c r="F137" s="22">
+        <v>1</v>
+      </c>
+      <c r="G137" s="22">
+        <v>6</v>
+      </c>
+      <c r="H137" s="22">
+        <v>5</v>
+      </c>
+      <c r="I137" s="22">
+        <v>180</v>
+      </c>
+      <c r="J137" s="22">
+        <v>2590</v>
+      </c>
+      <c r="K137" s="22">
+        <v>420</v>
+      </c>
+      <c r="L137" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C138" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="D138" s="22">
+        <v>142</v>
+      </c>
+      <c r="E138" s="22">
+        <v>12</v>
+      </c>
+      <c r="F138" s="22">
+        <v>1</v>
+      </c>
+      <c r="G138" s="22">
+        <v>5</v>
+      </c>
+      <c r="H138" s="22">
+        <v>5</v>
+      </c>
+      <c r="I138" s="22">
+        <v>120</v>
+      </c>
+      <c r="J138" s="22">
+        <v>425</v>
+      </c>
+      <c r="K138" s="22">
+        <v>160</v>
+      </c>
+      <c r="L138" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="D139" s="22">
+        <v>11</v>
+      </c>
+      <c r="E139" s="22">
+        <v>9</v>
+      </c>
+      <c r="F139" s="22">
+        <v>2</v>
+      </c>
+      <c r="G139" s="22">
+        <v>5</v>
+      </c>
+      <c r="H139" s="22">
+        <v>5</v>
+      </c>
+      <c r="I139" s="22">
+        <v>60</v>
+      </c>
+      <c r="J139" s="22">
+        <v>925</v>
+      </c>
+      <c r="K139" s="22">
+        <v>300</v>
+      </c>
+      <c r="L139" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D140" s="22">
+        <v>143</v>
+      </c>
+      <c r="E140" s="22">
+        <v>9</v>
+      </c>
+      <c r="F140" s="22">
+        <v>1</v>
+      </c>
+      <c r="G140" s="22">
+        <v>2</v>
+      </c>
+      <c r="H140" s="22">
+        <v>5</v>
+      </c>
+      <c r="I140" s="22">
+        <v>180</v>
+      </c>
+      <c r="J140" s="22">
+        <v>2350</v>
+      </c>
+      <c r="K140" s="22">
+        <v>380</v>
+      </c>
+      <c r="L140" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D141" s="22">
+        <v>8</v>
+      </c>
+      <c r="E141" s="22">
+        <v>2</v>
+      </c>
+      <c r="F141" s="22">
+        <v>1</v>
+      </c>
+      <c r="G141" s="22">
+        <v>2</v>
+      </c>
+      <c r="H141" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I141" s="22">
+        <v>150</v>
+      </c>
+      <c r="J141" s="22">
+        <v>1450</v>
+      </c>
+      <c r="K141" s="22">
+        <v>300</v>
+      </c>
+      <c r="L141" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="D142" s="22">
+        <v>131</v>
+      </c>
+      <c r="E142" s="22">
+        <v>1</v>
+      </c>
+      <c r="F142" s="22">
+        <v>2</v>
+      </c>
+      <c r="G142" s="22">
+        <v>6</v>
+      </c>
+      <c r="H142" s="22">
+        <v>4.6</v>
+      </c>
+      <c r="I142" s="22">
+        <v>150</v>
+      </c>
+      <c r="J142" s="22">
+        <v>1120</v>
+      </c>
+      <c r="K142" s="22">
+        <v>290</v>
+      </c>
+      <c r="L142" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D143" s="22">
+        <v>6</v>
+      </c>
+      <c r="E143" s="22">
+        <v>9</v>
+      </c>
+      <c r="F143" s="22">
+        <v>10</v>
+      </c>
+      <c r="G143" s="22">
+        <v>22</v>
+      </c>
+      <c r="H143" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I143" s="22">
+        <v>230</v>
+      </c>
+      <c r="J143" s="22">
+        <v>3150</v>
+      </c>
+      <c r="K143" s="22">
+        <v>480</v>
+      </c>
+      <c r="L143" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D144" s="22">
+        <v>6</v>
+      </c>
+      <c r="E144" s="22">
+        <v>9</v>
+      </c>
+      <c r="F144" s="22">
+        <v>2</v>
+      </c>
+      <c r="G144" s="22">
+        <v>22</v>
+      </c>
+      <c r="H144" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I144" s="22">
+        <v>230</v>
+      </c>
+      <c r="J144" s="22">
+        <v>3150</v>
+      </c>
+      <c r="K144" s="22">
+        <v>430</v>
+      </c>
+      <c r="L144" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="D145" s="22">
+        <v>144</v>
+      </c>
+      <c r="E145" s="22">
+        <v>5</v>
+      </c>
+      <c r="F145" s="22">
+        <v>2</v>
+      </c>
+      <c r="G145" s="22">
+        <v>24</v>
+      </c>
+      <c r="H145" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I145" s="22">
+        <v>30</v>
+      </c>
+      <c r="J145" s="22">
+        <v>1250</v>
+      </c>
+      <c r="K145" s="22">
+        <v>95</v>
+      </c>
+      <c r="L145" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="B146" s="22"/>
+      <c r="C146" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="D146" s="22">
+        <v>89</v>
+      </c>
+      <c r="E146" s="22">
+        <v>1</v>
+      </c>
+      <c r="F146" s="22">
+        <v>1</v>
+      </c>
+      <c r="G146" s="22">
+        <v>2</v>
+      </c>
+      <c r="H146" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I146" s="22">
+        <v>80</v>
+      </c>
+      <c r="J146" s="22">
+        <v>520</v>
+      </c>
+      <c r="K146" s="22">
+        <v>170</v>
+      </c>
+      <c r="L146" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="D147" s="22">
+        <v>145</v>
+      </c>
+      <c r="E147" s="22">
+        <v>9</v>
+      </c>
+      <c r="F147" s="22">
+        <v>1</v>
+      </c>
+      <c r="G147" s="22">
+        <v>3</v>
+      </c>
+      <c r="H147" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I147" s="22">
+        <v>80</v>
+      </c>
+      <c r="J147" s="22">
+        <v>380</v>
+      </c>
+      <c r="K147" s="22">
+        <v>150</v>
+      </c>
+      <c r="L147" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D148" s="22">
+        <v>77</v>
+      </c>
+      <c r="E148" s="22">
+        <v>2</v>
+      </c>
+      <c r="F148" s="22">
+        <v>1</v>
+      </c>
+      <c r="G148" s="22">
+        <v>2</v>
+      </c>
+      <c r="H148" s="22">
+        <v>5</v>
+      </c>
+      <c r="I148" s="22">
+        <v>950</v>
+      </c>
+      <c r="J148" s="22">
+        <v>23900</v>
+      </c>
+      <c r="K148" s="22">
+        <v>1950</v>
+      </c>
+      <c r="L148" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D149" s="22">
+        <v>39</v>
+      </c>
+      <c r="E149" s="22">
+        <v>2</v>
+      </c>
+      <c r="F149" s="22">
+        <v>1</v>
+      </c>
+      <c r="G149" s="22">
+        <v>12</v>
+      </c>
+      <c r="H149" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I149" s="22">
+        <v>150</v>
+      </c>
+      <c r="J149" s="22">
+        <v>4020</v>
+      </c>
+      <c r="K149" s="22">
+        <v>480</v>
+      </c>
+      <c r="L149" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D150" s="22">
+        <v>99</v>
+      </c>
+      <c r="E150" s="22">
+        <v>9</v>
+      </c>
+      <c r="F150" s="22">
+        <v>1</v>
+      </c>
+      <c r="G150" s="22">
+        <v>4</v>
+      </c>
+      <c r="H150" s="22">
+        <v>5</v>
+      </c>
+      <c r="I150" s="22">
+        <v>160</v>
+      </c>
+      <c r="J150" s="22">
+        <v>950</v>
+      </c>
+      <c r="K150" s="22">
+        <v>280</v>
+      </c>
+      <c r="L150" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D151" s="22">
+        <v>84</v>
+      </c>
+      <c r="E151" s="22">
+        <v>3</v>
+      </c>
+      <c r="F151" s="22">
+        <v>1</v>
+      </c>
+      <c r="G151" s="22">
+        <v>2</v>
+      </c>
+      <c r="H151" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I151" s="22">
+        <v>150</v>
+      </c>
+      <c r="J151" s="22">
+        <v>1390</v>
+      </c>
+      <c r="K151" s="22">
+        <v>320</v>
+      </c>
+      <c r="L151" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D152" s="22">
+        <v>146</v>
+      </c>
+      <c r="E152" s="22">
+        <v>9</v>
+      </c>
+      <c r="F152" s="22">
+        <v>1</v>
+      </c>
+      <c r="G152" s="22">
+        <v>1</v>
+      </c>
+      <c r="H152" s="22">
+        <v>5</v>
+      </c>
+      <c r="I152" s="22">
+        <v>80</v>
+      </c>
+      <c r="J152" s="22">
+        <v>850</v>
+      </c>
+      <c r="K152" s="22">
+        <v>180</v>
+      </c>
+      <c r="L152" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="D153" s="22">
+        <v>60</v>
+      </c>
+      <c r="E153" s="22">
+        <v>17</v>
+      </c>
+      <c r="F153" s="22">
+        <v>2</v>
+      </c>
+      <c r="G153" s="22">
+        <v>5</v>
+      </c>
+      <c r="H153" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I153" s="22">
+        <v>80</v>
+      </c>
+      <c r="J153" s="22">
+        <v>250</v>
+      </c>
+      <c r="K153" s="22">
+        <v>130</v>
+      </c>
+      <c r="L153" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="D154" s="22">
+        <v>61</v>
+      </c>
+      <c r="E154" s="22">
+        <v>2</v>
+      </c>
+      <c r="F154" s="22">
+        <v>1</v>
+      </c>
+      <c r="G154" s="22">
+        <v>6</v>
+      </c>
+      <c r="H154" s="22">
+        <v>5</v>
+      </c>
+      <c r="I154" s="22">
+        <v>250</v>
+      </c>
+      <c r="J154" s="22">
+        <v>3500</v>
+      </c>
+      <c r="K154" s="22">
+        <v>680</v>
+      </c>
+      <c r="L154" s="22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D155" s="22">
+        <v>1</v>
+      </c>
+      <c r="E155" s="22">
+        <v>2</v>
+      </c>
+      <c r="F155" s="22">
+        <v>2</v>
+      </c>
+      <c r="G155" s="22">
+        <v>10</v>
+      </c>
+      <c r="H155" s="22">
+        <v>5</v>
+      </c>
+      <c r="I155" s="22">
+        <v>390</v>
+      </c>
+      <c r="J155" s="22">
+        <v>1530</v>
+      </c>
+      <c r="K155" s="22">
+        <v>550</v>
+      </c>
+      <c r="L155" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="D156" s="22">
+        <v>108</v>
+      </c>
+      <c r="E156" s="22">
+        <v>4</v>
+      </c>
+      <c r="F156" s="22">
+        <v>1</v>
+      </c>
+      <c r="G156" s="22">
+        <v>4</v>
+      </c>
+      <c r="H156" s="22">
+        <v>4.6</v>
+      </c>
+      <c r="I156" s="22">
+        <v>250</v>
+      </c>
+      <c r="J156" s="22">
+        <v>1512</v>
+      </c>
+      <c r="K156" s="22">
+        <v>460</v>
+      </c>
+      <c r="L156" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="D157" s="22">
+        <v>28</v>
+      </c>
+      <c r="E157" s="22">
+        <v>9</v>
+      </c>
+      <c r="F157" s="22">
+        <v>1</v>
+      </c>
+      <c r="G157" s="22">
+        <v>6</v>
+      </c>
+      <c r="H157" s="22">
+        <v>5</v>
+      </c>
+      <c r="I157" s="22">
+        <v>200</v>
+      </c>
+      <c r="J157" s="22">
+        <v>2850</v>
+      </c>
+      <c r="K157" s="22">
+        <v>850</v>
+      </c>
+      <c r="L157" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="D158" s="22">
+        <v>39</v>
+      </c>
+      <c r="E158" s="22">
+        <v>9</v>
+      </c>
+      <c r="F158" s="22">
+        <v>10</v>
+      </c>
+      <c r="G158" s="22">
+        <v>16</v>
+      </c>
+      <c r="H158" s="22">
+        <v>4.6</v>
+      </c>
+      <c r="I158" s="22">
+        <v>35</v>
+      </c>
+      <c r="J158" s="22">
+        <v>420</v>
+      </c>
+      <c r="K158" s="22">
+        <v>90</v>
+      </c>
+      <c r="L158" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="D159" s="22">
+        <v>11</v>
+      </c>
+      <c r="E159" s="22">
+        <v>4</v>
+      </c>
+      <c r="F159" s="22">
+        <v>3</v>
+      </c>
+      <c r="G159" s="22">
+        <v>6</v>
+      </c>
+      <c r="H159" s="22">
+        <v>5</v>
+      </c>
+      <c r="I159" s="22">
+        <v>150</v>
+      </c>
+      <c r="J159" s="22">
+        <v>620</v>
+      </c>
+      <c r="K159" s="22">
+        <v>210</v>
+      </c>
+      <c r="L159" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="D160" s="22">
+        <v>144</v>
+      </c>
+      <c r="E160" s="22">
+        <v>1</v>
+      </c>
+      <c r="F160" s="22">
+        <v>1</v>
+      </c>
+      <c r="G160" s="22">
+        <v>2</v>
+      </c>
+      <c r="H160" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I160" s="22">
+        <v>120</v>
+      </c>
+      <c r="J160" s="22">
+        <v>2840</v>
+      </c>
+      <c r="K160" s="22">
+        <v>480</v>
+      </c>
+      <c r="L160" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="D161" s="22">
+        <v>144</v>
+      </c>
+      <c r="E161" s="22">
+        <v>4</v>
+      </c>
+      <c r="F161" s="22">
+        <v>1</v>
+      </c>
+      <c r="G161" s="22">
+        <v>2</v>
+      </c>
+      <c r="H161" s="22">
+        <v>5</v>
+      </c>
+      <c r="I161" s="22">
+        <v>250</v>
+      </c>
+      <c r="J161" s="22">
+        <v>5200</v>
+      </c>
+      <c r="K161" s="22">
+        <v>680</v>
+      </c>
+      <c r="L161" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="D162" s="22">
+        <v>144</v>
+      </c>
+      <c r="E162" s="22">
+        <v>4</v>
+      </c>
+      <c r="F162" s="22">
+        <v>10</v>
+      </c>
+      <c r="G162" s="22">
+        <v>12</v>
+      </c>
+      <c r="H162" s="22">
+        <v>4.6</v>
+      </c>
+      <c r="I162" s="22">
+        <v>150</v>
+      </c>
+      <c r="J162" s="22">
+        <v>4200</v>
+      </c>
+      <c r="K162" s="22">
+        <v>350</v>
+      </c>
+      <c r="L162" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="D163" s="22">
+        <v>12</v>
+      </c>
+      <c r="E163" s="22">
+        <v>6</v>
+      </c>
+      <c r="F163" s="22">
+        <v>1</v>
+      </c>
+      <c r="G163" s="22">
+        <v>12</v>
+      </c>
+      <c r="H163" s="22">
+        <v>4.9</v>
+      </c>
+      <c r="I163" s="22">
+        <v>300</v>
+      </c>
+      <c r="J163" s="22">
+        <v>1960</v>
+      </c>
+      <c r="K163" s="22">
+        <v>580</v>
+      </c>
+      <c r="L163" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="D164" s="22">
+        <v>49</v>
+      </c>
+      <c r="E164" s="22">
+        <v>17</v>
+      </c>
+      <c r="F164" s="22">
+        <v>1</v>
+      </c>
+      <c r="G164" s="22">
+        <v>4</v>
+      </c>
+      <c r="H164" s="22">
+        <v>5</v>
+      </c>
+      <c r="I164" s="22">
+        <v>280</v>
+      </c>
+      <c r="J164" s="22">
+        <v>1090</v>
+      </c>
+      <c r="K164" s="22">
+        <v>520</v>
+      </c>
+      <c r="L164" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="D165" s="22">
+        <v>43</v>
+      </c>
+      <c r="E165" s="22">
+        <v>8</v>
+      </c>
+      <c r="F165" s="22">
+        <v>1</v>
+      </c>
+      <c r="G165" s="22">
+        <v>6</v>
+      </c>
+      <c r="H165" s="22">
+        <v>4.3</v>
+      </c>
+      <c r="I165" s="22">
+        <v>80</v>
+      </c>
+      <c r="J165" s="22">
+        <v>415</v>
+      </c>
+      <c r="K165" s="22">
+        <v>130</v>
+      </c>
+      <c r="L165" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="D166" s="22">
+        <v>147</v>
+      </c>
+      <c r="E166" s="22">
+        <v>2</v>
+      </c>
+      <c r="F166" s="22">
+        <v>1</v>
+      </c>
+      <c r="G166" s="22">
+        <v>2</v>
+      </c>
+      <c r="H166" s="22">
+        <v>5</v>
+      </c>
+      <c r="I166" s="22">
+        <v>140</v>
+      </c>
+      <c r="J166" s="22">
+        <v>758</v>
+      </c>
+      <c r="K166" s="22">
+        <v>190</v>
+      </c>
+      <c r="L166" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="D167" s="22">
+        <v>148</v>
+      </c>
+      <c r="E167" s="22">
+        <v>4</v>
+      </c>
+      <c r="F167" s="22">
+        <v>15</v>
+      </c>
+      <c r="G167" s="22">
+        <v>35</v>
+      </c>
+      <c r="H167" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I167" s="22">
+        <v>100</v>
+      </c>
+      <c r="J167" s="22">
+        <v>1350</v>
+      </c>
+      <c r="K167" s="22">
+        <v>200</v>
+      </c>
+      <c r="L167" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="D168" s="22">
+        <v>149</v>
+      </c>
+      <c r="E168" s="22">
+        <v>7</v>
+      </c>
+      <c r="F168" s="22">
+        <v>4</v>
+      </c>
+      <c r="G168" s="22">
+        <v>8</v>
+      </c>
+      <c r="H168" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I168" s="22">
+        <v>220</v>
+      </c>
+      <c r="J168" s="22">
+        <v>770</v>
+      </c>
+      <c r="K168" s="22">
+        <v>370</v>
+      </c>
+      <c r="L168" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="B169" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D169" s="22">
+        <v>39</v>
+      </c>
+      <c r="E169" s="22">
+        <v>2</v>
+      </c>
+      <c r="F169" s="22">
+        <v>4</v>
+      </c>
+      <c r="G169" s="22">
+        <v>12</v>
+      </c>
+      <c r="H169" s="22">
+        <v>5</v>
+      </c>
+      <c r="I169" s="22">
+        <v>170</v>
+      </c>
+      <c r="J169" s="22">
+        <v>3250</v>
+      </c>
+      <c r="K169" s="22">
+        <v>360</v>
+      </c>
+      <c r="L169" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="D170" s="22">
+        <v>144</v>
+      </c>
+      <c r="E170" s="22">
+        <v>4</v>
+      </c>
+      <c r="F170" s="22">
+        <v>1</v>
+      </c>
+      <c r="G170" s="22">
+        <v>2</v>
+      </c>
+      <c r="H170" s="22">
+        <v>5</v>
+      </c>
+      <c r="I170" s="22">
+        <v>320</v>
+      </c>
+      <c r="J170" s="22">
+        <v>4650</v>
+      </c>
+      <c r="K170" s="22">
+        <v>590</v>
+      </c>
+      <c r="L170" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="D171" s="22">
+        <v>113</v>
+      </c>
+      <c r="E171" s="22">
+        <v>9</v>
+      </c>
+      <c r="F171" s="22">
+        <v>1</v>
+      </c>
+      <c r="G171" s="22">
+        <v>4</v>
+      </c>
+      <c r="H171" s="22">
+        <v>5</v>
+      </c>
+      <c r="I171" s="22">
+        <v>550</v>
+      </c>
+      <c r="J171" s="22">
+        <v>3200</v>
+      </c>
+      <c r="K171" s="22">
+        <v>950</v>
+      </c>
+      <c r="L171" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="D172" s="22">
+        <v>106</v>
+      </c>
+      <c r="E172" s="22">
+        <v>9</v>
+      </c>
+      <c r="F172" s="22">
+        <v>1</v>
+      </c>
+      <c r="G172" s="22">
+        <v>4</v>
+      </c>
+      <c r="H172" s="22">
+        <v>4.6</v>
+      </c>
+      <c r="I172" s="22">
+        <v>250</v>
+      </c>
+      <c r="J172" s="22">
+        <v>2220</v>
+      </c>
+      <c r="K172" s="22">
+        <v>540</v>
+      </c>
+      <c r="L172" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="D173" s="22">
+        <v>149</v>
+      </c>
+      <c r="E173" s="22">
+        <v>7</v>
+      </c>
+      <c r="F173" s="22">
+        <v>12</v>
+      </c>
+      <c r="G173" s="22">
+        <v>35</v>
+      </c>
+      <c r="H173" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I173" s="22">
+        <v>220</v>
+      </c>
+      <c r="J173" s="22">
+        <v>890</v>
+      </c>
+      <c r="K173" s="22">
+        <v>380</v>
+      </c>
+      <c r="L173" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="D174" s="22">
+        <v>45</v>
+      </c>
+      <c r="E174" s="22">
+        <v>9</v>
+      </c>
+      <c r="F174" s="22">
+        <v>1</v>
+      </c>
+      <c r="G174" s="22">
+        <v>2</v>
+      </c>
+      <c r="H174" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I174" s="22">
+        <v>110</v>
+      </c>
+      <c r="J174" s="22">
+        <v>540</v>
+      </c>
+      <c r="K174" s="22">
+        <v>190</v>
+      </c>
+      <c r="L174" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="D175" s="22">
+        <v>67</v>
+      </c>
+      <c r="E175" s="22">
+        <v>9</v>
+      </c>
+      <c r="F175" s="22">
+        <v>1</v>
+      </c>
+      <c r="G175" s="22">
+        <v>8</v>
+      </c>
+      <c r="H175" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="I175" s="22">
+        <v>300</v>
+      </c>
+      <c r="J175" s="22">
+        <v>3650</v>
+      </c>
+      <c r="K175" s="22">
+        <v>810</v>
+      </c>
+      <c r="L175" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="D176" s="22">
+        <v>6</v>
+      </c>
+      <c r="E176" s="22">
+        <v>8</v>
+      </c>
+      <c r="F176" s="22">
+        <v>1</v>
+      </c>
+      <c r="G176" s="22">
+        <v>8</v>
+      </c>
+      <c r="H176" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I176" s="22">
+        <v>150</v>
+      </c>
+      <c r="J176" s="22">
+        <v>1120</v>
+      </c>
+      <c r="K176" s="22">
+        <v>320</v>
+      </c>
+      <c r="L176" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="D177" s="22">
+        <v>144</v>
+      </c>
+      <c r="E177" s="22">
+        <v>9</v>
+      </c>
+      <c r="F177" s="22">
+        <v>1</v>
+      </c>
+      <c r="G177" s="22">
+        <v>4</v>
+      </c>
+      <c r="H177" s="22">
+        <v>5</v>
+      </c>
+      <c r="I177" s="22">
+        <v>320</v>
+      </c>
+      <c r="J177" s="22">
+        <v>2450</v>
+      </c>
+      <c r="K177" s="22">
+        <v>590</v>
+      </c>
+      <c r="L177" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="D178" s="22">
+        <v>113</v>
+      </c>
+      <c r="E178" s="22">
+        <v>9</v>
+      </c>
+      <c r="F178" s="22">
+        <v>1</v>
+      </c>
+      <c r="G178" s="22">
+        <v>6</v>
+      </c>
+      <c r="H178" s="22">
+        <v>5</v>
+      </c>
+      <c r="I178" s="22">
+        <v>550</v>
+      </c>
+      <c r="J178" s="22">
+        <v>4650</v>
+      </c>
+      <c r="K178" s="22">
+        <v>850</v>
+      </c>
+      <c r="L178" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="D179" s="22">
+        <v>144</v>
+      </c>
+      <c r="E179" s="22">
+        <v>2</v>
+      </c>
+      <c r="F179" s="22">
+        <v>1</v>
+      </c>
+      <c r="G179" s="22">
+        <v>2</v>
+      </c>
+      <c r="H179" s="22">
+        <v>5</v>
+      </c>
+      <c r="I179" s="22">
+        <v>300</v>
+      </c>
+      <c r="J179" s="22">
+        <v>3120</v>
+      </c>
+      <c r="K179" s="22">
+        <v>580</v>
+      </c>
+      <c r="L179" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="D180" s="22">
+        <v>143</v>
+      </c>
+      <c r="E180" s="22">
+        <v>2</v>
+      </c>
+      <c r="F180" s="22">
+        <v>1</v>
+      </c>
+      <c r="G180" s="22">
+        <v>5</v>
+      </c>
+      <c r="H180" s="22">
+        <v>4.6</v>
+      </c>
+      <c r="I180" s="22">
+        <v>180</v>
+      </c>
+      <c r="J180" s="22">
+        <v>1950</v>
+      </c>
+      <c r="K180" s="22">
+        <v>400</v>
+      </c>
+      <c r="L180" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6415,6 +10228,84 @@
     <hyperlink ref="C101" r:id="rId97" display="https://res.cloudinary.com/deoknys7k/image/upload/v1757387044/yymfippaawxxxqtefqsy_rgzsbc.webp" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1757387044/yymfippaawxxxqtefqsy_rgzsbc.webp"/>
     <hyperlink ref="C102" r:id="rId98" display="https://res.cloudinary.com/deoknys7k/image/upload/v1757387045/z57kp37cdcocrgndqmha_on29ma.webp" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1757387045/z57kp37cdcocrgndqmha_on29ma.webp"/>
     <hyperlink ref="C103" r:id="rId99" display="https://res.cloudinary.com/deoknys7k/image/upload/v1757387047/zcycm1akio72qo5dvye4_gh1t5p.webp" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1757387047/zcycm1akio72qo5dvye4_gh1t5p.webp"/>
+    <hyperlink ref="C104" r:id="rId100" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355277/z7031253053493_a8f1793edf67b1941dc2cf49a45abfee_pfxm15.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355277/z7031253053493_a8f1793edf67b1941dc2cf49a45abfee_pfxm15.jpg"/>
+    <hyperlink ref="C105" r:id="rId101" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253053782_1ebdd51838087778adeee762b23950b1_mjgyjp.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253053782_1ebdd51838087778adeee762b23950b1_mjgyjp.jpg"/>
+    <hyperlink ref="C106" r:id="rId102" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253102480_7a43404eb5233b12d384c78220497f3c_tvmbbq.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253102480_7a43404eb5233b12d384c78220497f3c_tvmbbq.jpg"/>
+    <hyperlink ref="B106" r:id="rId103" display="Viên Uống Chống Nắng HELIOCARE là sản phẩm chống nắng đường uống từ thương hiệu mỹ phẩm HELIOCARE nổi tiếng tại Tây Ban Nha. Với thành phần chính chiết xuất từ dương xỉ, viên uống làm đẹp da này sẽ giúp cung cấp khả năng bảo vệ đồng nhất và toàn diện trước tác động của ánh nắng mặt trời, giảm thiểu các tổn thương do tia UV gây ra, giúp ngăn ngừa da lão hóa và mang đến làn da đẹp, khỏe mạnh cho người sử dụng. " tooltip="https://hasaki.vn/danh-muc/lam-dep-c1995.html"/>
+    <hyperlink ref="C107" r:id="rId104" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253042576_20d2f6f37d883fc1d03b3d96d001cb3d_e3a1e5.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253042576_20d2f6f37d883fc1d03b3d96d001cb3d_e3a1e5.jpg"/>
+    <hyperlink ref="C108" r:id="rId105" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253080697_29db6174421f24f58cb32cea2cc27696_bspw8i.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253080697_29db6174421f24f58cb32cea2cc27696_bspw8i.jpg"/>
+    <hyperlink ref="C109" r:id="rId106" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253074919_2c7b8ddcb2401135cd52b589d263d9b0_xydbsd.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253074919_2c7b8ddcb2401135cd52b589d263d9b0_xydbsd.jpg"/>
+    <hyperlink ref="C110" r:id="rId107" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253111051_da3b83c4c4911ff42929da2959f75894_yloyxm.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355278/z7031253111051_da3b83c4c4911ff42929da2959f75894_yloyxm.jpg"/>
+    <hyperlink ref="C111" r:id="rId108" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253102782_2b906144f19edaa613e9cbad89d17d58_drdqh5.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253102782_2b906144f19edaa613e9cbad89d17d58_drdqh5.jpg"/>
+    <hyperlink ref="C112" r:id="rId109" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253083544_f8a8e3b36da21d72fb56f47cd7f03900_txqzac.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253083544_f8a8e3b36da21d72fb56f47cd7f03900_txqzac.jpg"/>
+    <hyperlink ref="C113" r:id="rId110" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253087140_e0f8c30889b5d863701ba1ec6a232057_mfxnng.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253087140_e0f8c30889b5d863701ba1ec6a232057_mfxnng.jpg"/>
+    <hyperlink ref="C114" r:id="rId111" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253122586_48c848907660f0966a2ba43f6fb89913_nd9a5u.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253122586_48c848907660f0966a2ba43f6fb89913_nd9a5u.jpg"/>
+    <hyperlink ref="C115" r:id="rId112" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253096844_d63efb5da939ec5033a1c05c6cc3e8ce_ez2qht.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355279/z7031253096844_d63efb5da939ec5033a1c05c6cc3e8ce_ez2qht.jpg"/>
+    <hyperlink ref="C116" r:id="rId113" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253126001_fd66b55e22298b487d8a0d7bf9d9b5aa_mjhilm.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253126001_fd66b55e22298b487d8a0d7bf9d9b5aa_mjhilm.jpg"/>
+    <hyperlink ref="C117" r:id="rId114" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253131504_51b53e9c713e17afa0b85a31aa2285e8_vxfucc.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253131504_51b53e9c713e17afa0b85a31aa2285e8_vxfucc.jpg"/>
+    <hyperlink ref="C118" r:id="rId115" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253126195_91c1177f200f1b1fd05315d37cf42714_yb2cxm.jpg"/>
+    <hyperlink ref="C119" r:id="rId116" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253145331_d7590d4f71680289f2532305ff6ed1d7_yyhrxp.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253145331_d7590d4f71680289f2532305ff6ed1d7_yyhrxp.jpg"/>
+    <hyperlink ref="C120" r:id="rId117" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253147741_eb892a9dfc30ca419eb3c24239b97a55_bw9w1a.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253147741_eb892a9dfc30ca419eb3c24239b97a55_bw9w1a.jpg"/>
+    <hyperlink ref="C121" r:id="rId118" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253150856_6a21f721b6e36043d6d2f6fc28d76f86_f3mj68.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355280/z7031253150856_6a21f721b6e36043d6d2f6fc28d76f86_f3mj68.jpg"/>
+    <hyperlink ref="C122" r:id="rId119" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253167167_fdae9f274ef3f6d4815915c06e1f38dc_scnigv.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253167167_fdae9f274ef3f6d4815915c06e1f38dc_scnigv.jpg"/>
+    <hyperlink ref="C123" r:id="rId120" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253161522_a5f52f4b5cae3d319a356faf0a7daebe_c28xix.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253161522_a5f52f4b5cae3d319a356faf0a7daebe_c28xix.jpg"/>
+    <hyperlink ref="C124" r:id="rId121" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253168463_34193ab51865f948322c7931091a375f_eabji9.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253168463_34193ab51865f948322c7931091a375f_eabji9.jpg"/>
+    <hyperlink ref="C125" r:id="rId122" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253178244_a97b2340c4d2e7f9d78b26d32dec6304_jxdxsd.jpg"/>
+    <hyperlink ref="C126" r:id="rId123" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253179421_29c80bfa52065d3c9a8c3df83adae079_ax9h2l.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253179421_29c80bfa52065d3c9a8c3df83adae079_ax9h2l.jpg"/>
+    <hyperlink ref="C127" r:id="rId124" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253187721_bf805b517711189d5250f140ff3255f5_ywtnah.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253187721_bf805b517711189d5250f140ff3255f5_ywtnah.jpg"/>
+    <hyperlink ref="C128" r:id="rId125" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253199332_b101e55cb1bbd83de50a8511980df028_zbzs2h.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355281/z7031253199332_b101e55cb1bbd83de50a8511980df028_zbzs2h.jpg"/>
+    <hyperlink ref="C129" r:id="rId126" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355282/z7031253195926_2935ec1faa7a5939cfe74be572a21b2b_pzjuaz.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355282/z7031253195926_2935ec1faa7a5939cfe74be572a21b2b_pzjuaz.jpg"/>
+    <hyperlink ref="C130" r:id="rId127" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253208367_c506d446cb691210c17661240d18bf31_qtwivv.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253208367_c506d446cb691210c17661240d18bf31_qtwivv.jpg"/>
+    <hyperlink ref="C131" r:id="rId128" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253214058_124f3cd1f84cc3b393441b2403e920c3_s2yquw.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253214058_124f3cd1f84cc3b393441b2403e920c3_s2yquw.jpg"/>
+    <hyperlink ref="C132" r:id="rId129" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253208667_3db0ff843c7fab16a5616adf789ffcdd_uge2o6.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253208667_3db0ff843c7fab16a5616adf789ffcdd_uge2o6.jpg"/>
+    <hyperlink ref="C133" r:id="rId130" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253225365_76cb0fd685bcd7af0ccfe2096a9a49b7_axpp0e.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253225365_76cb0fd685bcd7af0ccfe2096a9a49b7_axpp0e.jpg"/>
+    <hyperlink ref="C134" r:id="rId131" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253227039_2275b2e19c46ee0526757aad11d6cd7f_bshw82.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253227039_2275b2e19c46ee0526757aad11d6cd7f_bshw82.jpg"/>
+    <hyperlink ref="C135" r:id="rId132" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253236069_5741c6de098f2cc8523564c26a654448_fi86up.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253236069_5741c6de098f2cc8523564c26a654448_fi86up.jpg"/>
+    <hyperlink ref="C136" r:id="rId133" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253272469_128a66414fc7437f0907d65b6f8de9ca_w3pkue.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253272469_128a66414fc7437f0907d65b6f8de9ca_w3pkue.jpg"/>
+    <hyperlink ref="C137" r:id="rId134" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253243719_dd63e74feb2985d886a9f6ef529f157f_elrlzp.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355285/z7031253243719_dd63e74feb2985d886a9f6ef529f157f_elrlzp.jpg"/>
+    <hyperlink ref="C138" r:id="rId135" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355286/z7031253245237_d97ecd3ac4c49e180563293fa309db2a_ebb3ee.jpg"/>
+    <hyperlink ref="C139" r:id="rId136" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355286/z7031253255117_3376d34ebe452121a94849519c4c401c_lm1uzy.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355286/z7031253255117_3376d34ebe452121a94849519c4c401c_lm1uzy.jpg"/>
+    <hyperlink ref="C140" r:id="rId137" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355286/z7031253256080_f5fccec7dae48d46d7a2ea386342448d_j6dx4x.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355286/z7031253256080_f5fccec7dae48d46d7a2ea386342448d_j6dx4x.jpg"/>
+    <hyperlink ref="C141" r:id="rId138" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355287/z7031253262023_a6fe8f32c2896b963afc7cc4ac66619c_aerv3h.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355287/z7031253262023_a6fe8f32c2896b963afc7cc4ac66619c_aerv3h.jpg"/>
+    <hyperlink ref="C142" r:id="rId139" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355287/z7031253271650_a1b8943263b576017a1463d82433b39b_kddsbl.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355287/z7031253271650_a1b8943263b576017a1463d82433b39b_kddsbl.jpg"/>
+    <hyperlink ref="C143" r:id="rId140" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253276855_67606a62c52704d764bd85e7b647ef24_t9zcu1.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253276855_67606a62c52704d764bd85e7b647ef24_t9zcu1.jpg"/>
+    <hyperlink ref="C144" r:id="rId140" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253276855_67606a62c52704d764bd85e7b647ef24_t9zcu1.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253276855_67606a62c52704d764bd85e7b647ef24_t9zcu1.jpg"/>
+    <hyperlink ref="C145" r:id="rId141" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253289932_8f1290b83b8f4ca952662b66860b156f_n67wwn.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253289932_8f1290b83b8f4ca952662b66860b156f_n67wwn.jpg"/>
+    <hyperlink ref="C146" r:id="rId142" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253296813_e4db2f7f4e2a3c122a431ad0c184bf41_jqpia4.jpg"/>
+    <hyperlink ref="C147" r:id="rId143" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355289/z7031253297034_e7f6e0e6e3e94e3cf6512166babe2a14_yjoq8x.jpg"/>
+    <hyperlink ref="C148" r:id="rId144" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355291/z7031253316152_636f6174eb9c40e5afa5abb4bd04e45e_ykx7vi.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355291/z7031253316152_636f6174eb9c40e5afa5abb4bd04e45e_ykx7vi.jpg"/>
+    <hyperlink ref="C149" r:id="rId145" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355291/z7031253304440_747f2a425a86797bfc3219db5c3ec09c_dh4fms.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355291/z7031253304440_747f2a425a86797bfc3219db5c3ec09c_dh4fms.jpg"/>
+    <hyperlink ref="C150" r:id="rId146" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355291/z7031253310896_0b0ee0e409c93a53ea9cf8d4420de28e_fuk5yt.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355291/z7031253310896_0b0ee0e409c93a53ea9cf8d4420de28e_fuk5yt.jpg"/>
+    <hyperlink ref="C151" r:id="rId147" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355293/z7031253325286_eabcb164d2218dfd3d52ec5ffa46a299_ijjgqh.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355293/z7031253325286_eabcb164d2218dfd3d52ec5ffa46a299_ijjgqh.jpg"/>
+    <hyperlink ref="C152" r:id="rId148" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355294/z7031253327013_fb079f3428ac695e8184d63b3de6dca8_xw254x.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355294/z7031253327013_fb079f3428ac695e8184d63b3de6dca8_xw254x.jpg"/>
+    <hyperlink ref="C153" r:id="rId149" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355295/z7031253337338_bd0ce749dc0696a741bad5155b51d1e2_ystzsp.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355295/z7031253337338_bd0ce749dc0696a741bad5155b51d1e2_ystzsp.jpg"/>
+    <hyperlink ref="C154" r:id="rId150" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355296/z7031253339388_91298c936a44df13c5dbda3187d79e6e_do1lcl.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355296/z7031253339388_91298c936a44df13c5dbda3187d79e6e_do1lcl.jpg"/>
+    <hyperlink ref="C155" r:id="rId151" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355297/z7031254530606_bec07b23706b19fd43581f12752e720c_n3rp3n.jpg"/>
+    <hyperlink ref="C156" r:id="rId152" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355298/z7031254548734_14cba776748dce12f4b064076f57d5d5_xozphq.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355298/z7031254548734_14cba776748dce12f4b064076f57d5d5_xozphq.jpg"/>
+    <hyperlink ref="C157" r:id="rId153" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254566634_6c3879319082441b5e059adc4c104e9b_n1xqru.jpg"/>
+    <hyperlink ref="C158" r:id="rId154" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254537677_9fb420db43b33fabeca80c17279eba11_bczpft.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254537677_9fb420db43b33fabeca80c17279eba11_bczpft.jpg"/>
+    <hyperlink ref="C159" r:id="rId155" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254543663_e9ba3764b051d3c022fb9f8941ebb493_fnt0kq.jpg"/>
+    <hyperlink ref="C160" r:id="rId156" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254558447_3b252f0426ee38f245ce78270f1c33c6_xbou6v.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254558447_3b252f0426ee38f245ce78270f1c33c6_xbou6v.jpg"/>
+    <hyperlink ref="C161" r:id="rId157" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254579828_cbdc43eb47eb435940620a13a669b968_erxm5i.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355299/z7031254579828_cbdc43eb47eb435940620a13a669b968_erxm5i.jpg"/>
+    <hyperlink ref="C162" r:id="rId158" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254556699_e669feb09fcbcce3da65ea3341e28572_dt6c5g.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254556699_e669feb09fcbcce3da65ea3341e28572_dt6c5g.jpg"/>
+    <hyperlink ref="C163" r:id="rId159" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254584022_bf0a4806f61e51e5ba1daa23f85ee37c_gmexbe.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254584022_bf0a4806f61e51e5ba1daa23f85ee37c_gmexbe.jpg"/>
+    <hyperlink ref="C164" r:id="rId160" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254597580_57e3d7d619281816c0912def7df1f08f_anyrsm.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254597580_57e3d7d619281816c0912def7df1f08f_anyrsm.jpg"/>
+    <hyperlink ref="C165" r:id="rId161" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254595760_b1d7679bf36fc2d25dfafc6e6302f090_qwblmv.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355300/z7031254595760_b1d7679bf36fc2d25dfafc6e6302f090_qwblmv.jpg"/>
+    <hyperlink ref="C166" r:id="rId162" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355301/z7031254599072_60e8d77cd4b1b306731749785b95d921_mjhnbj.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355301/z7031254599072_60e8d77cd4b1b306731749785b95d921_mjhnbj.jpg"/>
+    <hyperlink ref="C167" r:id="rId163" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355301/z7031254575844_3e8c43e7f724d26628269aa7f6c42862_mcncmd.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355301/z7031254575844_3e8c43e7f724d26628269aa7f6c42862_mcncmd.jpg"/>
+    <hyperlink ref="C168" r:id="rId164" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254618095_5d8704b20aec65913068b21787db5d6f_xnx57m.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254618095_5d8704b20aec65913068b21787db5d6f_xnx57m.jpg"/>
+    <hyperlink ref="C169" r:id="rId165" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254605616_b8cc019a9248b254d81dfa7e69c35bce_kc0twc.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254605616_b8cc019a9248b254d81dfa7e69c35bce_kc0twc.jpg"/>
+    <hyperlink ref="C170" r:id="rId166" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254618404_b7e2beaab54cd6f4b0dc4ac6fe593cfb_csdknn.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254618404_b7e2beaab54cd6f4b0dc4ac6fe593cfb_csdknn.jpg"/>
+    <hyperlink ref="C171" r:id="rId167" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254630467_0fc46b447d1770a448b51f16023df0ce_dmkbys.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254630467_0fc46b447d1770a448b51f16023df0ce_dmkbys.jpg"/>
+    <hyperlink ref="C172" r:id="rId168" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254631365_bb5cae0ce8325b22fb2cd993825bbd2c_o3miid.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355305/z7031254631365_bb5cae0ce8325b22fb2cd993825bbd2c_o3miid.jpg"/>
+    <hyperlink ref="C173" r:id="rId169" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355306/z7031254636501_197854906ae1006c3d8d93dca86e6b1b_g7do6e.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355306/z7031254636501_197854906ae1006c3d8d93dca86e6b1b_g7do6e.jpg"/>
+    <hyperlink ref="C174" r:id="rId170" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355306/z7031254654241_1f38b5eff5da073831c2f6717cfb6ee3_vmxnfz.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355306/z7031254654241_1f38b5eff5da073831c2f6717cfb6ee3_vmxnfz.jpg"/>
+    <hyperlink ref="C175" r:id="rId171" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355306/z7031254666223_b9971c4f361cdca4989607d36bf74804_lht4t1.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355306/z7031254666223_b9971c4f361cdca4989607d36bf74804_lht4t1.jpg"/>
+    <hyperlink ref="C176" r:id="rId172" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355307/z7031254641578_1f1fd77c3b1887f04b527bd69f10bf94_ioaldn.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355307/z7031254641578_1f1fd77c3b1887f04b527bd69f10bf94_ioaldn.jpg"/>
+    <hyperlink ref="C177" r:id="rId173" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355307/z7031254645991_9d63caee5874ab3f3b146c8bf3da99e4_f3xexl.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355307/z7031254645991_9d63caee5874ab3f3b146c8bf3da99e4_f3xexl.jpg"/>
+    <hyperlink ref="C178" r:id="rId174" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355307/z7031254669935_0f3da84a8b202faf4d894ea905acb1fe_oci6jm.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355307/z7031254669935_0f3da84a8b202faf4d894ea905acb1fe_oci6jm.jpg"/>
+    <hyperlink ref="C179" r:id="rId175" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355309/z7031254670215_6e2f9b9419e09f790a7816f09345dd55_n2jsrb.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355309/z7031254670215_6e2f9b9419e09f790a7816f09345dd55_n2jsrb.jpg"/>
+    <hyperlink ref="C180" r:id="rId176" display="https://res.cloudinary.com/deoknys7k/image/upload/v1758355309/z7031254673631_bf3716d38ac80ecfbf291f7acc6c87bc_doquk2.jpg" tooltip="https://res.cloudinary.com/deoknys7k/image/upload/v1758355309/z7031254673631_bf3716d38ac80ecfbf291f7acc6c87bc_doquk2.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
